--- a/edited/elective_list/ppe.xlsx
+++ b/edited/elective_list/ppe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\졸업학점 프로그램 제작\edited\elective_list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GIST_Credit_Analysis_Program\edited\elective_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D47E1B-0073-404B-ABFF-7627C8B513CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3106876A-038E-431D-97DA-85426B01D0F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16608" yWindow="2952" windowWidth="6432" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="146">
   <si>
     <t>교과목</t>
   </si>
@@ -898,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D310"/>
+  <dimension ref="A1:D383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="E313" sqref="E313"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -928,7 +928,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D2" t="s">
         <v>66</v>
@@ -942,7 +942,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D3" t="s">
         <v>67</v>
@@ -956,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D4" t="s">
         <v>68</v>
@@ -970,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D5" t="s">
         <v>69</v>
@@ -984,7 +984,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D6" t="s">
         <v>70</v>
@@ -998,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D7" t="s">
         <v>71</v>
@@ -1012,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D8" t="s">
         <v>72</v>
@@ -1026,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D9" t="s">
         <v>73</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D10" t="s">
         <v>74</v>
@@ -1054,7 +1054,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
@@ -1068,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D12" t="s">
         <v>76</v>
@@ -1082,7 +1082,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D13" t="s">
         <v>77</v>
@@ -1096,7 +1096,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D14" t="s">
         <v>78</v>
@@ -1110,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D15" t="s">
         <v>79</v>
@@ -1124,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D16" t="s">
         <v>80</v>
@@ -1138,7 +1138,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D17" t="s">
         <v>81</v>
@@ -1152,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D18" t="s">
         <v>82</v>
@@ -1166,7 +1166,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D19" t="s">
         <v>83</v>
@@ -1180,7 +1180,7 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D20" t="s">
         <v>84</v>
@@ -1194,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D21" t="s">
         <v>85</v>
@@ -1208,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D22" t="s">
         <v>86</v>
@@ -1222,7 +1222,7 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D23" t="s">
         <v>87</v>
@@ -1236,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D24" t="s">
         <v>88</v>
@@ -1250,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D25" t="s">
         <v>89</v>
@@ -1264,7 +1264,7 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D26" t="s">
         <v>90</v>
@@ -1278,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D27" t="s">
         <v>91</v>
@@ -1292,7 +1292,7 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D28" t="s">
         <v>92</v>
@@ -1306,7 +1306,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D29" t="s">
         <v>93</v>
@@ -1320,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D30" t="s">
         <v>94</v>
@@ -1334,7 +1334,7 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D31" t="s">
         <v>95</v>
@@ -1348,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D32" t="s">
         <v>96</v>
@@ -1362,7 +1362,7 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D33" t="s">
         <v>97</v>
@@ -1376,7 +1376,7 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D34" t="s">
         <v>98</v>
@@ -1390,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D35" t="s">
         <v>99</v>
@@ -1404,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D36" t="s">
         <v>100</v>
@@ -1418,7 +1418,7 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D37" t="s">
         <v>101</v>
@@ -1432,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D38" t="s">
         <v>102</v>
@@ -1446,7 +1446,7 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D39" t="s">
         <v>103</v>
@@ -1460,7 +1460,7 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D40" t="s">
         <v>104</v>
@@ -1474,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D41" t="s">
         <v>105</v>
@@ -1488,7 +1488,7 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D42" t="s">
         <v>106</v>
@@ -1502,7 +1502,7 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D43" t="s">
         <v>107</v>
@@ -1516,7 +1516,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D44" t="s">
         <v>108</v>
@@ -1530,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D45" t="s">
         <v>109</v>
@@ -1544,7 +1544,7 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D46" t="s">
         <v>110</v>
@@ -1558,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="C47">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D47" t="s">
         <v>111</v>
@@ -1572,7 +1572,7 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D48" t="s">
         <v>112</v>
@@ -1586,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D49" t="s">
         <v>113</v>
@@ -1600,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="C50">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D50" t="s">
         <v>114</v>
@@ -1614,7 +1614,7 @@
         <v>3</v>
       </c>
       <c r="C51">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D51" t="s">
         <v>115</v>
@@ -1628,7 +1628,7 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D52" t="s">
         <v>117</v>
@@ -1642,7 +1642,7 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D53" t="s">
         <v>118</v>
@@ -1656,7 +1656,7 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D54" t="s">
         <v>119</v>
@@ -1670,7 +1670,7 @@
         <v>3</v>
       </c>
       <c r="C55">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D55" t="s">
         <v>120</v>
@@ -1684,7 +1684,7 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D56" t="s">
         <v>121</v>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="C57">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D57" t="s">
         <v>122</v>
@@ -1712,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="C58">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D58" t="s">
         <v>123</v>
@@ -1726,7 +1726,7 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D59" t="s">
         <v>124</v>
@@ -1740,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D60" t="s">
         <v>125</v>
@@ -1754,7 +1754,7 @@
         <v>3</v>
       </c>
       <c r="C61">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D61" t="s">
         <v>126</v>
@@ -1768,7 +1768,7 @@
         <v>3</v>
       </c>
       <c r="C62">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D62" t="s">
         <v>127</v>
@@ -1782,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="C63">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D63" t="s">
         <v>128</v>
@@ -1796,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D64" t="s">
         <v>129</v>
@@ -1810,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D65" t="s">
         <v>130</v>
@@ -1824,7 +1824,7 @@
         <v>3</v>
       </c>
       <c r="C66">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D66" t="s">
         <v>131</v>
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="C67">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D67" t="s">
         <v>132</v>
@@ -1852,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C68">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D68" t="s">
         <v>133</v>
@@ -1866,7 +1866,7 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D69" t="s">
         <v>134</v>
@@ -1880,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="C70">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D70" t="s">
         <v>116</v>
@@ -1894,7 +1894,7 @@
         <v>3</v>
       </c>
       <c r="C71">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D71" t="s">
         <v>135</v>
@@ -1908,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="C72">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D72" t="s">
         <v>136</v>
@@ -1922,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="C73">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D73" t="s">
         <v>137</v>
@@ -1936,7 +1936,7 @@
         <v>3</v>
       </c>
       <c r="C74">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D74" t="s">
         <v>138</v>
@@ -1950,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="C75">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D75" t="s">
         <v>66</v>
@@ -1964,7 +1964,7 @@
         <v>3</v>
       </c>
       <c r="C76">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D76" t="s">
         <v>67</v>
@@ -1978,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="C77">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D77" t="s">
         <v>68</v>
@@ -1992,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C78">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D78" t="s">
         <v>69</v>
@@ -2006,7 +2006,7 @@
         <v>3</v>
       </c>
       <c r="C79">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D79" t="s">
         <v>70</v>
@@ -2020,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="C80">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D80" t="s">
         <v>71</v>
@@ -2034,7 +2034,7 @@
         <v>3</v>
       </c>
       <c r="C81">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D81" t="s">
         <v>72</v>
@@ -2048,7 +2048,7 @@
         <v>3</v>
       </c>
       <c r="C82">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D82" t="s">
         <v>73</v>
@@ -2062,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C83">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D83" t="s">
         <v>74</v>
@@ -2076,7 +2076,7 @@
         <v>3</v>
       </c>
       <c r="C84">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D84" t="s">
         <v>75</v>
@@ -2090,7 +2090,7 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D85" t="s">
         <v>76</v>
@@ -2104,7 +2104,7 @@
         <v>3</v>
       </c>
       <c r="C86">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D86" t="s">
         <v>77</v>
@@ -2118,7 +2118,7 @@
         <v>3</v>
       </c>
       <c r="C87">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D87" t="s">
         <v>78</v>
@@ -2132,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C88">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D88" t="s">
         <v>79</v>
@@ -2146,7 +2146,7 @@
         <v>3</v>
       </c>
       <c r="C89">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D89" t="s">
         <v>80</v>
@@ -2160,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="C90">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D90" t="s">
         <v>81</v>
@@ -2174,7 +2174,7 @@
         <v>3</v>
       </c>
       <c r="C91">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D91" t="s">
         <v>82</v>
@@ -2188,7 +2188,7 @@
         <v>3</v>
       </c>
       <c r="C92">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D92" t="s">
         <v>83</v>
@@ -2202,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C93">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D93" t="s">
         <v>84</v>
@@ -2216,7 +2216,7 @@
         <v>3</v>
       </c>
       <c r="C94">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D94" t="s">
         <v>85</v>
@@ -2230,7 +2230,7 @@
         <v>3</v>
       </c>
       <c r="C95">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D95" t="s">
         <v>86</v>
@@ -2244,7 +2244,7 @@
         <v>3</v>
       </c>
       <c r="C96">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D96" t="s">
         <v>87</v>
@@ -2258,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="C97">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D97" t="s">
         <v>88</v>
@@ -2272,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="C98">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D98" t="s">
         <v>89</v>
@@ -2286,7 +2286,7 @@
         <v>3</v>
       </c>
       <c r="C99">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D99" t="s">
         <v>90</v>
@@ -2300,7 +2300,7 @@
         <v>3</v>
       </c>
       <c r="C100">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D100" t="s">
         <v>91</v>
@@ -2314,7 +2314,7 @@
         <v>3</v>
       </c>
       <c r="C101">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D101" t="s">
         <v>92</v>
@@ -2328,7 +2328,7 @@
         <v>3</v>
       </c>
       <c r="C102">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D102" t="s">
         <v>93</v>
@@ -2342,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="C103">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D103" t="s">
         <v>94</v>
@@ -2356,7 +2356,7 @@
         <v>3</v>
       </c>
       <c r="C104">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D104" t="s">
         <v>95</v>
@@ -2370,7 +2370,7 @@
         <v>3</v>
       </c>
       <c r="C105">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D105" t="s">
         <v>96</v>
@@ -2384,7 +2384,7 @@
         <v>3</v>
       </c>
       <c r="C106">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D106" t="s">
         <v>97</v>
@@ -2398,7 +2398,7 @@
         <v>3</v>
       </c>
       <c r="C107">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D107" t="s">
         <v>98</v>
@@ -2412,7 +2412,7 @@
         <v>3</v>
       </c>
       <c r="C108">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D108" t="s">
         <v>99</v>
@@ -2426,7 +2426,7 @@
         <v>3</v>
       </c>
       <c r="C109">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D109" t="s">
         <v>100</v>
@@ -2440,7 +2440,7 @@
         <v>3</v>
       </c>
       <c r="C110">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D110" t="s">
         <v>101</v>
@@ -2454,7 +2454,7 @@
         <v>3</v>
       </c>
       <c r="C111">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D111" t="s">
         <v>102</v>
@@ -2468,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D112" t="s">
         <v>103</v>
@@ -2482,7 +2482,7 @@
         <v>3</v>
       </c>
       <c r="C113">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D113" t="s">
         <v>104</v>
@@ -2496,7 +2496,7 @@
         <v>3</v>
       </c>
       <c r="C114">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D114" t="s">
         <v>105</v>
@@ -2510,7 +2510,7 @@
         <v>3</v>
       </c>
       <c r="C115">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D115" t="s">
         <v>106</v>
@@ -2524,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="C116">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D116" t="s">
         <v>107</v>
@@ -2538,7 +2538,7 @@
         <v>3</v>
       </c>
       <c r="C117">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D117" t="s">
         <v>108</v>
@@ -2552,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="C118">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D118" t="s">
         <v>109</v>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
       <c r="C119">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D119" t="s">
         <v>110</v>
@@ -2580,7 +2580,7 @@
         <v>3</v>
       </c>
       <c r="C120">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D120" t="s">
         <v>111</v>
@@ -2594,7 +2594,7 @@
         <v>3</v>
       </c>
       <c r="C121">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D121" t="s">
         <v>112</v>
@@ -2608,7 +2608,7 @@
         <v>3</v>
       </c>
       <c r="C122">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D122" t="s">
         <v>113</v>
@@ -2622,7 +2622,7 @@
         <v>3</v>
       </c>
       <c r="C123">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D123" t="s">
         <v>114</v>
@@ -2636,7 +2636,7 @@
         <v>3</v>
       </c>
       <c r="C124">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D124" t="s">
         <v>115</v>
@@ -2650,7 +2650,7 @@
         <v>3</v>
       </c>
       <c r="C125">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D125" t="s">
         <v>117</v>
@@ -2664,7 +2664,7 @@
         <v>3</v>
       </c>
       <c r="C126">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D126" t="s">
         <v>118</v>
@@ -2678,7 +2678,7 @@
         <v>3</v>
       </c>
       <c r="C127">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D127" t="s">
         <v>119</v>
@@ -2692,7 +2692,7 @@
         <v>3</v>
       </c>
       <c r="C128">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D128" t="s">
         <v>120</v>
@@ -2706,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="C129">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D129" t="s">
         <v>121</v>
@@ -2720,7 +2720,7 @@
         <v>3</v>
       </c>
       <c r="C130">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D130" t="s">
         <v>122</v>
@@ -2734,7 +2734,7 @@
         <v>3</v>
       </c>
       <c r="C131">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D131" t="s">
         <v>123</v>
@@ -2748,7 +2748,7 @@
         <v>3</v>
       </c>
       <c r="C132">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D132" t="s">
         <v>124</v>
@@ -2762,7 +2762,7 @@
         <v>3</v>
       </c>
       <c r="C133">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D133" t="s">
         <v>125</v>
@@ -2776,7 +2776,7 @@
         <v>3</v>
       </c>
       <c r="C134">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D134" t="s">
         <v>126</v>
@@ -2790,7 +2790,7 @@
         <v>3</v>
       </c>
       <c r="C135">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D135" t="s">
         <v>127</v>
@@ -2804,7 +2804,7 @@
         <v>3</v>
       </c>
       <c r="C136">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D136" t="s">
         <v>128</v>
@@ -2818,7 +2818,7 @@
         <v>3</v>
       </c>
       <c r="C137">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D137" t="s">
         <v>129</v>
@@ -2832,7 +2832,7 @@
         <v>3</v>
       </c>
       <c r="C138">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D138" t="s">
         <v>130</v>
@@ -2846,7 +2846,7 @@
         <v>3</v>
       </c>
       <c r="C139">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D139" t="s">
         <v>131</v>
@@ -2860,7 +2860,7 @@
         <v>3</v>
       </c>
       <c r="C140">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D140" t="s">
         <v>132</v>
@@ -2874,7 +2874,7 @@
         <v>3</v>
       </c>
       <c r="C141">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D141" t="s">
         <v>133</v>
@@ -2888,7 +2888,7 @@
         <v>3</v>
       </c>
       <c r="C142">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D142" t="s">
         <v>134</v>
@@ -2902,7 +2902,7 @@
         <v>3</v>
       </c>
       <c r="C143">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D143" t="s">
         <v>116</v>
@@ -2916,7 +2916,7 @@
         <v>3</v>
       </c>
       <c r="C144">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D144" t="s">
         <v>135</v>
@@ -2930,7 +2930,7 @@
         <v>3</v>
       </c>
       <c r="C145">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D145" t="s">
         <v>136</v>
@@ -2944,7 +2944,7 @@
         <v>3</v>
       </c>
       <c r="C146">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D146" t="s">
         <v>137</v>
@@ -2958,7 +2958,7 @@
         <v>3</v>
       </c>
       <c r="C147">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D147" t="s">
         <v>138</v>
@@ -2972,7 +2972,7 @@
         <v>3</v>
       </c>
       <c r="C148">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D148" t="s">
         <v>66</v>
@@ -2986,7 +2986,7 @@
         <v>3</v>
       </c>
       <c r="C149">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D149" t="s">
         <v>67</v>
@@ -3000,7 +3000,7 @@
         <v>3</v>
       </c>
       <c r="C150">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D150" t="s">
         <v>68</v>
@@ -3014,7 +3014,7 @@
         <v>3</v>
       </c>
       <c r="C151">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D151" t="s">
         <v>69</v>
@@ -3028,7 +3028,7 @@
         <v>3</v>
       </c>
       <c r="C152">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D152" t="s">
         <v>70</v>
@@ -3042,7 +3042,7 @@
         <v>3</v>
       </c>
       <c r="C153">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D153" t="s">
         <v>71</v>
@@ -3056,7 +3056,7 @@
         <v>3</v>
       </c>
       <c r="C154">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D154" t="s">
         <v>72</v>
@@ -3070,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="C155">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D155" t="s">
         <v>73</v>
@@ -3084,7 +3084,7 @@
         <v>3</v>
       </c>
       <c r="C156">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D156" t="s">
         <v>74</v>
@@ -3098,7 +3098,7 @@
         <v>3</v>
       </c>
       <c r="C157">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D157" t="s">
         <v>75</v>
@@ -3112,7 +3112,7 @@
         <v>3</v>
       </c>
       <c r="C158">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D158" t="s">
         <v>76</v>
@@ -3126,7 +3126,7 @@
         <v>3</v>
       </c>
       <c r="C159">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D159" t="s">
         <v>77</v>
@@ -3140,7 +3140,7 @@
         <v>3</v>
       </c>
       <c r="C160">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D160" t="s">
         <v>78</v>
@@ -3154,7 +3154,7 @@
         <v>3</v>
       </c>
       <c r="C161">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D161" t="s">
         <v>79</v>
@@ -3168,7 +3168,7 @@
         <v>3</v>
       </c>
       <c r="C162">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D162" t="s">
         <v>80</v>
@@ -3182,7 +3182,7 @@
         <v>3</v>
       </c>
       <c r="C163">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D163" t="s">
         <v>81</v>
@@ -3196,7 +3196,7 @@
         <v>3</v>
       </c>
       <c r="C164">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D164" t="s">
         <v>82</v>
@@ -3210,7 +3210,7 @@
         <v>3</v>
       </c>
       <c r="C165">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D165" t="s">
         <v>83</v>
@@ -3224,7 +3224,7 @@
         <v>3</v>
       </c>
       <c r="C166">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D166" t="s">
         <v>84</v>
@@ -3238,7 +3238,7 @@
         <v>3</v>
       </c>
       <c r="C167">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D167" t="s">
         <v>85</v>
@@ -3252,7 +3252,7 @@
         <v>3</v>
       </c>
       <c r="C168">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D168" t="s">
         <v>86</v>
@@ -3266,7 +3266,7 @@
         <v>3</v>
       </c>
       <c r="C169">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D169" t="s">
         <v>87</v>
@@ -3280,7 +3280,7 @@
         <v>3</v>
       </c>
       <c r="C170">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D170" t="s">
         <v>88</v>
@@ -3288,16 +3288,16 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B171">
         <v>3</v>
       </c>
       <c r="C171">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D171" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
@@ -3308,10 +3308,10 @@
         <v>3</v>
       </c>
       <c r="C172">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D172" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
@@ -3322,10 +3322,10 @@
         <v>3</v>
       </c>
       <c r="C173">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D173" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
@@ -3336,24 +3336,24 @@
         <v>3</v>
       </c>
       <c r="C174">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D174" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B175">
         <v>3</v>
       </c>
       <c r="C175">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D175" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
@@ -3364,66 +3364,66 @@
         <v>3</v>
       </c>
       <c r="C176">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D176" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B177">
         <v>3</v>
       </c>
       <c r="C177">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D177" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B178">
         <v>3</v>
       </c>
       <c r="C178">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D178" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B179">
         <v>3</v>
       </c>
       <c r="C179">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D179" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B180">
         <v>3</v>
       </c>
       <c r="C180">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D180" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
@@ -3434,80 +3434,80 @@
         <v>3</v>
       </c>
       <c r="C181">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D181" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B182">
         <v>3</v>
       </c>
       <c r="C182">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D182" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B183">
         <v>3</v>
       </c>
       <c r="C183">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D183" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B184">
         <v>3</v>
       </c>
       <c r="C184">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D184" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B185">
         <v>3</v>
       </c>
       <c r="C185">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D185" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="B186">
         <v>3</v>
       </c>
       <c r="C186">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D186" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
@@ -3518,7 +3518,7 @@
         <v>3</v>
       </c>
       <c r="C187">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D187" t="s">
         <v>105</v>
@@ -3532,7 +3532,7 @@
         <v>3</v>
       </c>
       <c r="C188">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D188" t="s">
         <v>106</v>
@@ -3546,7 +3546,7 @@
         <v>3</v>
       </c>
       <c r="C189">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D189" t="s">
         <v>107</v>
@@ -3560,7 +3560,7 @@
         <v>3</v>
       </c>
       <c r="C190">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D190" t="s">
         <v>108</v>
@@ -3574,7 +3574,7 @@
         <v>3</v>
       </c>
       <c r="C191">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D191" t="s">
         <v>109</v>
@@ -3588,7 +3588,7 @@
         <v>3</v>
       </c>
       <c r="C192">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D192" t="s">
         <v>110</v>
@@ -3602,7 +3602,7 @@
         <v>3</v>
       </c>
       <c r="C193">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D193" t="s">
         <v>111</v>
@@ -3616,7 +3616,7 @@
         <v>3</v>
       </c>
       <c r="C194">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D194" t="s">
         <v>112</v>
@@ -3630,7 +3630,7 @@
         <v>3</v>
       </c>
       <c r="C195">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D195" t="s">
         <v>113</v>
@@ -3644,7 +3644,7 @@
         <v>3</v>
       </c>
       <c r="C196">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D196" t="s">
         <v>114</v>
@@ -3658,7 +3658,7 @@
         <v>3</v>
       </c>
       <c r="C197">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D197" t="s">
         <v>115</v>
@@ -3672,7 +3672,7 @@
         <v>3</v>
       </c>
       <c r="C198">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D198" t="s">
         <v>117</v>
@@ -3686,7 +3686,7 @@
         <v>3</v>
       </c>
       <c r="C199">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D199" t="s">
         <v>118</v>
@@ -3694,1555 +3694,2577 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B200">
         <v>3</v>
       </c>
       <c r="C200">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D200" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B201">
         <v>3</v>
       </c>
       <c r="C201">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D201" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C202">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D202" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B203">
         <v>3</v>
       </c>
       <c r="C203">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D203" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B204">
         <v>3</v>
       </c>
       <c r="C204">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D204" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B205">
         <v>3</v>
       </c>
       <c r="C205">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D205" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B206">
         <v>3</v>
       </c>
       <c r="C206">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D206" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B207">
         <v>3</v>
       </c>
       <c r="C207">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D207" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B208">
         <v>3</v>
       </c>
       <c r="C208">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D208" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B209">
         <v>3</v>
       </c>
       <c r="C209">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D209" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B210">
         <v>3</v>
       </c>
       <c r="C210">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D210" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B211">
         <v>3</v>
       </c>
       <c r="C211">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D211" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B212">
         <v>3</v>
       </c>
       <c r="C212">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D212" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B213">
         <v>3</v>
       </c>
       <c r="C213">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D213" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B214">
         <v>3</v>
       </c>
       <c r="C214">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D214" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B215">
         <v>3</v>
       </c>
       <c r="C215">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D215" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B216">
         <v>3</v>
       </c>
       <c r="C216">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D216" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B217">
         <v>3</v>
       </c>
       <c r="C217">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D217" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B218">
         <v>3</v>
       </c>
       <c r="C218">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D218" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B219">
         <v>3</v>
       </c>
       <c r="C219">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D219" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B220">
         <v>3</v>
       </c>
       <c r="C220">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D220" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B221">
         <v>3</v>
       </c>
       <c r="C221">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D221" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B222">
         <v>3</v>
       </c>
       <c r="C222">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D222" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B223">
         <v>3</v>
       </c>
       <c r="C223">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D223" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B224">
         <v>3</v>
       </c>
       <c r="C224">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D224" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B225">
         <v>3</v>
       </c>
       <c r="C225">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D225" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B226">
         <v>3</v>
       </c>
       <c r="C226">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D226" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B227">
         <v>3</v>
       </c>
       <c r="C227">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D227" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B228">
         <v>3</v>
       </c>
       <c r="C228">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D228" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B229">
         <v>3</v>
       </c>
       <c r="C229">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D229" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B230">
         <v>3</v>
       </c>
       <c r="C230">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D230" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B231">
         <v>3</v>
       </c>
       <c r="C231">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D231" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B232">
         <v>3</v>
       </c>
       <c r="C232">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D232" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B233">
         <v>3</v>
       </c>
       <c r="C233">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D233" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B234">
         <v>3</v>
       </c>
       <c r="C234">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D234" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B235">
         <v>3</v>
       </c>
       <c r="C235">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D235" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B236">
         <v>3</v>
       </c>
       <c r="C236">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D236" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B237">
         <v>3</v>
       </c>
       <c r="C237">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D237" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B238">
         <v>3</v>
       </c>
       <c r="C238">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D238" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B239">
         <v>3</v>
       </c>
       <c r="C239">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D239" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B240">
         <v>3</v>
       </c>
       <c r="C240">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D240" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B241">
         <v>3</v>
       </c>
       <c r="C241">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D241" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B242">
         <v>3</v>
       </c>
       <c r="C242">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D242" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B243">
         <v>3</v>
       </c>
       <c r="C243">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D243" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B244">
         <v>3</v>
       </c>
       <c r="C244">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D244" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B245">
         <v>3</v>
       </c>
       <c r="C245">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D245" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B246">
         <v>3</v>
       </c>
       <c r="C246">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D246" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B247">
         <v>3</v>
       </c>
       <c r="C247">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D247" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B248">
         <v>3</v>
       </c>
       <c r="C248">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D248" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B249">
         <v>3</v>
       </c>
       <c r="C249">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D249" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B250">
         <v>3</v>
       </c>
       <c r="C250">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D250" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B251">
         <v>3</v>
       </c>
       <c r="C251">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D251" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B252">
         <v>3</v>
       </c>
       <c r="C252">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D252" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="B253">
         <v>3</v>
       </c>
       <c r="C253">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D253" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B254">
         <v>3</v>
       </c>
       <c r="C254">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D254" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B255">
         <v>3</v>
       </c>
       <c r="C255">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D255" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B256">
         <v>3</v>
       </c>
       <c r="C256">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D256" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B257">
         <v>3</v>
       </c>
       <c r="C257">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D257" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B258">
         <v>3</v>
       </c>
       <c r="C258">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D258" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="B259">
         <v>3</v>
       </c>
       <c r="C259">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D259" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B260">
         <v>3</v>
       </c>
       <c r="C260">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D260" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B261">
         <v>3</v>
       </c>
       <c r="C261">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D261" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B262">
         <v>3</v>
       </c>
       <c r="C262">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D262" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B263">
         <v>3</v>
       </c>
       <c r="C263">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D263" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B264">
         <v>3</v>
       </c>
       <c r="C264">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D264" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B265">
         <v>3</v>
       </c>
       <c r="C265">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D265" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B266">
         <v>3</v>
       </c>
       <c r="C266">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D266" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B267">
         <v>3</v>
       </c>
       <c r="C267">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D267" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B268">
         <v>3</v>
       </c>
       <c r="C268">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D268" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B269">
         <v>3</v>
       </c>
       <c r="C269">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D269" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B270">
         <v>3</v>
       </c>
       <c r="C270">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D270" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B271">
         <v>3</v>
       </c>
       <c r="C271">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D271" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B272">
         <v>3</v>
       </c>
       <c r="C272">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D272" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B273">
         <v>3</v>
       </c>
       <c r="C273">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D273" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B274">
         <v>3</v>
       </c>
       <c r="C274">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D274" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B275">
         <v>3</v>
       </c>
       <c r="C275">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D275" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B276">
         <v>3</v>
       </c>
       <c r="C276">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D276" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B277">
         <v>3</v>
       </c>
       <c r="C277">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D277" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B278">
         <v>3</v>
       </c>
       <c r="C278">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D278" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B279">
         <v>3</v>
       </c>
       <c r="C279">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D279" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B280">
         <v>3</v>
       </c>
       <c r="C280">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D280" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B281">
         <v>3</v>
       </c>
       <c r="C281">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D281" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B282">
         <v>3</v>
       </c>
       <c r="C282">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D282" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B283">
         <v>3</v>
       </c>
       <c r="C283">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D283" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B284">
         <v>3</v>
       </c>
       <c r="C284">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D284" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B285">
         <v>3</v>
       </c>
       <c r="C285">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D285" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B286">
         <v>3</v>
       </c>
       <c r="C286">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D286" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B287">
         <v>3</v>
       </c>
       <c r="C287">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D287" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B288">
         <v>3</v>
       </c>
       <c r="C288">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D288" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B289">
         <v>3</v>
       </c>
       <c r="C289">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D289" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="B290">
         <v>3</v>
       </c>
       <c r="C290">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D290" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B291">
         <v>3</v>
       </c>
       <c r="C291">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D291" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B292">
         <v>3</v>
       </c>
       <c r="C292">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D292" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B293">
         <v>3</v>
       </c>
       <c r="C293">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D293" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B294">
         <v>3</v>
       </c>
       <c r="C294">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D294" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B295">
         <v>3</v>
       </c>
       <c r="C295">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D295" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B296">
         <v>3</v>
       </c>
       <c r="C296">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D296" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="B297">
         <v>3</v>
       </c>
       <c r="C297">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D297" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B298">
         <v>3</v>
       </c>
       <c r="C298">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D298" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B299">
         <v>3</v>
       </c>
       <c r="C299">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D299" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B300">
         <v>3</v>
       </c>
       <c r="C300">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D300" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B301">
         <v>3</v>
       </c>
       <c r="C301">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D301" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B302">
         <v>3</v>
       </c>
       <c r="C302">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D302" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B303">
         <v>3</v>
       </c>
       <c r="C303">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D303" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B304">
         <v>3</v>
       </c>
       <c r="C304">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D304" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B305">
         <v>3</v>
       </c>
       <c r="C305">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D305" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B306">
         <v>3</v>
       </c>
       <c r="C306">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D306" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B307">
         <v>3</v>
       </c>
       <c r="C307">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D307" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B308">
         <v>3</v>
       </c>
       <c r="C308">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D308" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="B309">
         <v>3</v>
       </c>
       <c r="C309">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D309" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
+        <v>23</v>
+      </c>
+      <c r="B310">
+        <v>3</v>
+      </c>
+      <c r="C310">
+        <v>2017</v>
+      </c>
+      <c r="D310" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A311" t="s">
+        <v>26</v>
+      </c>
+      <c r="B311">
+        <v>3</v>
+      </c>
+      <c r="C311">
+        <v>2017</v>
+      </c>
+      <c r="D311" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A312" t="s">
+        <v>26</v>
+      </c>
+      <c r="B312">
+        <v>3</v>
+      </c>
+      <c r="C312">
+        <v>2017</v>
+      </c>
+      <c r="D312" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A313" t="s">
+        <v>26</v>
+      </c>
+      <c r="B313">
+        <v>3</v>
+      </c>
+      <c r="C313">
+        <v>2017</v>
+      </c>
+      <c r="D313" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A314" t="s">
+        <v>26</v>
+      </c>
+      <c r="B314">
+        <v>3</v>
+      </c>
+      <c r="C314">
+        <v>2017</v>
+      </c>
+      <c r="D314" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A315" t="s">
+        <v>27</v>
+      </c>
+      <c r="B315">
+        <v>3</v>
+      </c>
+      <c r="C315">
+        <v>2017</v>
+      </c>
+      <c r="D315" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A316" t="s">
+        <v>27</v>
+      </c>
+      <c r="B316">
+        <v>3</v>
+      </c>
+      <c r="C316">
+        <v>2017</v>
+      </c>
+      <c r="D316" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A317" t="s">
+        <v>28</v>
+      </c>
+      <c r="B317">
+        <v>3</v>
+      </c>
+      <c r="C317">
+        <v>2017</v>
+      </c>
+      <c r="D317" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A318" t="s">
+        <v>29</v>
+      </c>
+      <c r="B318">
+        <v>3</v>
+      </c>
+      <c r="C318">
+        <v>2017</v>
+      </c>
+      <c r="D318" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A319" t="s">
+        <v>30</v>
+      </c>
+      <c r="B319">
+        <v>3</v>
+      </c>
+      <c r="C319">
+        <v>2017</v>
+      </c>
+      <c r="D319" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A320" t="s">
+        <v>31</v>
+      </c>
+      <c r="B320">
+        <v>3</v>
+      </c>
+      <c r="C320">
+        <v>2017</v>
+      </c>
+      <c r="D320" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A321" t="s">
+        <v>31</v>
+      </c>
+      <c r="B321">
+        <v>3</v>
+      </c>
+      <c r="C321">
+        <v>2017</v>
+      </c>
+      <c r="D321" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A322" t="s">
+        <v>32</v>
+      </c>
+      <c r="B322">
+        <v>3</v>
+      </c>
+      <c r="C322">
+        <v>2017</v>
+      </c>
+      <c r="D322" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A323" t="s">
+        <v>33</v>
+      </c>
+      <c r="B323">
+        <v>3</v>
+      </c>
+      <c r="C323">
+        <v>2017</v>
+      </c>
+      <c r="D323" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A324" t="s">
+        <v>34</v>
+      </c>
+      <c r="B324">
+        <v>3</v>
+      </c>
+      <c r="C324">
+        <v>2017</v>
+      </c>
+      <c r="D324" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A325" t="s">
+        <v>35</v>
+      </c>
+      <c r="B325">
+        <v>3</v>
+      </c>
+      <c r="C325">
+        <v>2017</v>
+      </c>
+      <c r="D325" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A326" t="s">
+        <v>140</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326">
+        <v>2017</v>
+      </c>
+      <c r="D326" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A327" t="s">
+        <v>36</v>
+      </c>
+      <c r="B327">
+        <v>3</v>
+      </c>
+      <c r="C327">
+        <v>2017</v>
+      </c>
+      <c r="D327" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A328" t="s">
+        <v>37</v>
+      </c>
+      <c r="B328">
+        <v>3</v>
+      </c>
+      <c r="C328">
+        <v>2017</v>
+      </c>
+      <c r="D328" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A329" t="s">
+        <v>38</v>
+      </c>
+      <c r="B329">
+        <v>3</v>
+      </c>
+      <c r="C329">
+        <v>2017</v>
+      </c>
+      <c r="D329" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A330" t="s">
+        <v>39</v>
+      </c>
+      <c r="B330">
+        <v>3</v>
+      </c>
+      <c r="C330">
+        <v>2017</v>
+      </c>
+      <c r="D330" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A331" t="s">
+        <v>40</v>
+      </c>
+      <c r="B331">
+        <v>3</v>
+      </c>
+      <c r="C331">
+        <v>2017</v>
+      </c>
+      <c r="D331" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A332" t="s">
+        <v>45</v>
+      </c>
+      <c r="B332">
+        <v>3</v>
+      </c>
+      <c r="C332">
+        <v>2017</v>
+      </c>
+      <c r="D332" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A333" t="s">
+        <v>46</v>
+      </c>
+      <c r="B333">
+        <v>3</v>
+      </c>
+      <c r="C333">
+        <v>2017</v>
+      </c>
+      <c r="D333" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A334" t="s">
+        <v>52</v>
+      </c>
+      <c r="B334">
+        <v>3</v>
+      </c>
+      <c r="C334">
+        <v>2017</v>
+      </c>
+      <c r="D334" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A335" t="s">
+        <v>53</v>
+      </c>
+      <c r="B335">
+        <v>3</v>
+      </c>
+      <c r="C335">
+        <v>2017</v>
+      </c>
+      <c r="D335" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A336" t="s">
+        <v>53</v>
+      </c>
+      <c r="B336">
+        <v>3</v>
+      </c>
+      <c r="C336">
+        <v>2017</v>
+      </c>
+      <c r="D336" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A337" t="s">
+        <v>54</v>
+      </c>
+      <c r="B337">
+        <v>3</v>
+      </c>
+      <c r="C337">
+        <v>2017</v>
+      </c>
+      <c r="D337" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A338" t="s">
+        <v>54</v>
+      </c>
+      <c r="B338">
+        <v>3</v>
+      </c>
+      <c r="C338">
+        <v>2017</v>
+      </c>
+      <c r="D338" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A339" t="s">
+        <v>55</v>
+      </c>
+      <c r="B339">
+        <v>3</v>
+      </c>
+      <c r="C339">
+        <v>2017</v>
+      </c>
+      <c r="D339" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A340" t="s">
+        <v>56</v>
+      </c>
+      <c r="B340">
+        <v>3</v>
+      </c>
+      <c r="C340">
+        <v>2017</v>
+      </c>
+      <c r="D340" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A341" t="s">
+        <v>59</v>
+      </c>
+      <c r="B341">
+        <v>3</v>
+      </c>
+      <c r="C341">
+        <v>2017</v>
+      </c>
+      <c r="D341" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A342" t="s">
+        <v>60</v>
+      </c>
+      <c r="B342">
+        <v>3</v>
+      </c>
+      <c r="C342">
+        <v>2017</v>
+      </c>
+      <c r="D342" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A343" t="s">
+        <v>61</v>
+      </c>
+      <c r="B343">
+        <v>3</v>
+      </c>
+      <c r="C343">
+        <v>2017</v>
+      </c>
+      <c r="D343" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A344" t="s">
         <v>62</v>
       </c>
-      <c r="B310">
-        <v>3</v>
-      </c>
-      <c r="C310">
+      <c r="B344">
+        <v>3</v>
+      </c>
+      <c r="C344">
+        <v>2017</v>
+      </c>
+      <c r="D344" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A345" t="s">
+        <v>63</v>
+      </c>
+      <c r="B345">
+        <v>3</v>
+      </c>
+      <c r="C345">
+        <v>2017</v>
+      </c>
+      <c r="D345" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A346" t="s">
+        <v>64</v>
+      </c>
+      <c r="B346">
+        <v>3</v>
+      </c>
+      <c r="C346">
+        <v>2017</v>
+      </c>
+      <c r="D346" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A347" t="s">
+        <v>64</v>
+      </c>
+      <c r="B347">
+        <v>3</v>
+      </c>
+      <c r="C347">
+        <v>2017</v>
+      </c>
+      <c r="D347" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A348" t="s">
+        <v>3</v>
+      </c>
+      <c r="B348">
+        <v>3</v>
+      </c>
+      <c r="C348">
         <v>2016</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D348" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A349" t="s">
+        <v>4</v>
+      </c>
+      <c r="B349">
+        <v>3</v>
+      </c>
+      <c r="C349">
+        <v>2016</v>
+      </c>
+      <c r="D349" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A350" t="s">
+        <v>5</v>
+      </c>
+      <c r="B350">
+        <v>3</v>
+      </c>
+      <c r="C350">
+        <v>2016</v>
+      </c>
+      <c r="D350" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A351" t="s">
+        <v>6</v>
+      </c>
+      <c r="B351">
+        <v>3</v>
+      </c>
+      <c r="C351">
+        <v>2016</v>
+      </c>
+      <c r="D351" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A352" t="s">
+        <v>7</v>
+      </c>
+      <c r="B352">
+        <v>3</v>
+      </c>
+      <c r="C352">
+        <v>2016</v>
+      </c>
+      <c r="D352" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A353" t="s">
+        <v>8</v>
+      </c>
+      <c r="B353">
+        <v>3</v>
+      </c>
+      <c r="C353">
+        <v>2016</v>
+      </c>
+      <c r="D353" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A354" t="s">
+        <v>8</v>
+      </c>
+      <c r="B354">
+        <v>3</v>
+      </c>
+      <c r="C354">
+        <v>2016</v>
+      </c>
+      <c r="D354" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A355" t="s">
+        <v>9</v>
+      </c>
+      <c r="B355">
+        <v>3</v>
+      </c>
+      <c r="C355">
+        <v>2016</v>
+      </c>
+      <c r="D355" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A356" t="s">
+        <v>10</v>
+      </c>
+      <c r="B356">
+        <v>3</v>
+      </c>
+      <c r="C356">
+        <v>2016</v>
+      </c>
+      <c r="D356" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A357" t="s">
+        <v>11</v>
+      </c>
+      <c r="B357">
+        <v>3</v>
+      </c>
+      <c r="C357">
+        <v>2016</v>
+      </c>
+      <c r="D357" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A358" t="s">
+        <v>14</v>
+      </c>
+      <c r="B358">
+        <v>3</v>
+      </c>
+      <c r="C358">
+        <v>2016</v>
+      </c>
+      <c r="D358" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A359" t="s">
+        <v>15</v>
+      </c>
+      <c r="B359">
+        <v>3</v>
+      </c>
+      <c r="C359">
+        <v>2016</v>
+      </c>
+      <c r="D359" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A360" t="s">
+        <v>16</v>
+      </c>
+      <c r="B360">
+        <v>3</v>
+      </c>
+      <c r="C360">
+        <v>2016</v>
+      </c>
+      <c r="D360" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A361" t="s">
+        <v>17</v>
+      </c>
+      <c r="B361">
+        <v>3</v>
+      </c>
+      <c r="C361">
+        <v>2016</v>
+      </c>
+      <c r="D361" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A362" t="s">
+        <v>18</v>
+      </c>
+      <c r="B362">
+        <v>3</v>
+      </c>
+      <c r="C362">
+        <v>2016</v>
+      </c>
+      <c r="D362" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A363" t="s">
+        <v>142</v>
+      </c>
+      <c r="B363">
+        <v>3</v>
+      </c>
+      <c r="C363">
+        <v>2016</v>
+      </c>
+      <c r="D363" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A364" t="s">
+        <v>19</v>
+      </c>
+      <c r="B364">
+        <v>3</v>
+      </c>
+      <c r="C364">
+        <v>2016</v>
+      </c>
+      <c r="D364" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A365" t="s">
+        <v>20</v>
+      </c>
+      <c r="B365">
+        <v>3</v>
+      </c>
+      <c r="C365">
+        <v>2016</v>
+      </c>
+      <c r="D365" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A366" t="s">
+        <v>21</v>
+      </c>
+      <c r="B366">
+        <v>3</v>
+      </c>
+      <c r="C366">
+        <v>2016</v>
+      </c>
+      <c r="D366" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A367" t="s">
+        <v>33</v>
+      </c>
+      <c r="B367">
+        <v>3</v>
+      </c>
+      <c r="C367">
+        <v>2016</v>
+      </c>
+      <c r="D367" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A368" t="s">
+        <v>34</v>
+      </c>
+      <c r="B368">
+        <v>3</v>
+      </c>
+      <c r="C368">
+        <v>2016</v>
+      </c>
+      <c r="D368" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A369" t="s">
+        <v>35</v>
+      </c>
+      <c r="B369">
+        <v>3</v>
+      </c>
+      <c r="C369">
+        <v>2016</v>
+      </c>
+      <c r="D369" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A370" t="s">
+        <v>140</v>
+      </c>
+      <c r="B370">
+        <v>3</v>
+      </c>
+      <c r="C370">
+        <v>2016</v>
+      </c>
+      <c r="D370" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A371" t="s">
+        <v>36</v>
+      </c>
+      <c r="B371">
+        <v>3</v>
+      </c>
+      <c r="C371">
+        <v>2016</v>
+      </c>
+      <c r="D371" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A372" t="s">
+        <v>37</v>
+      </c>
+      <c r="B372">
+        <v>3</v>
+      </c>
+      <c r="C372">
+        <v>2016</v>
+      </c>
+      <c r="D372" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A373" t="s">
+        <v>38</v>
+      </c>
+      <c r="B373">
+        <v>3</v>
+      </c>
+      <c r="C373">
+        <v>2016</v>
+      </c>
+      <c r="D373" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A374" t="s">
+        <v>39</v>
+      </c>
+      <c r="B374">
+        <v>3</v>
+      </c>
+      <c r="C374">
+        <v>2016</v>
+      </c>
+      <c r="D374" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A375" t="s">
+        <v>40</v>
+      </c>
+      <c r="B375">
+        <v>3</v>
+      </c>
+      <c r="C375">
+        <v>2016</v>
+      </c>
+      <c r="D375" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A376" t="s">
+        <v>45</v>
+      </c>
+      <c r="B376">
+        <v>3</v>
+      </c>
+      <c r="C376">
+        <v>2016</v>
+      </c>
+      <c r="D376" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A377" t="s">
+        <v>46</v>
+      </c>
+      <c r="B377">
+        <v>3</v>
+      </c>
+      <c r="C377">
+        <v>2016</v>
+      </c>
+      <c r="D377" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A378" t="s">
+        <v>52</v>
+      </c>
+      <c r="B378">
+        <v>3</v>
+      </c>
+      <c r="C378">
+        <v>2016</v>
+      </c>
+      <c r="D378" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A379" t="s">
+        <v>53</v>
+      </c>
+      <c r="B379">
+        <v>3</v>
+      </c>
+      <c r="C379">
+        <v>2016</v>
+      </c>
+      <c r="D379" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A380" t="s">
+        <v>53</v>
+      </c>
+      <c r="B380">
+        <v>3</v>
+      </c>
+      <c r="C380">
+        <v>2016</v>
+      </c>
+      <c r="D380" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A381" t="s">
+        <v>55</v>
+      </c>
+      <c r="B381">
+        <v>3</v>
+      </c>
+      <c r="C381">
+        <v>2016</v>
+      </c>
+      <c r="D381" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A382" t="s">
+        <v>144</v>
+      </c>
+      <c r="B382">
+        <v>3</v>
+      </c>
+      <c r="C382">
+        <v>2016</v>
+      </c>
+      <c r="D382" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A383" t="s">
+        <v>62</v>
+      </c>
+      <c r="B383">
+        <v>3</v>
+      </c>
+      <c r="C383">
+        <v>2016</v>
+      </c>
+      <c r="D383" t="s">
         <v>116</v>
       </c>
     </row>

--- a/edited/elective_list/ppe.xlsx
+++ b/edited/elective_list/ppe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GIST_Credit_Analysis_Program\edited\elective_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3106876A-038E-431D-97DA-85426B01D0F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6664EC74-082D-446E-972E-E4E038FE97F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="147">
   <si>
     <t>교과목</t>
   </si>
@@ -464,6 +464,10 @@
   </si>
   <si>
     <t>로봇윤리와 로봇법학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS3831</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -900,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1622,7 +1626,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="B52">
         <v>3</v>

--- a/edited/elective_list/ppe.xlsx
+++ b/edited/elective_list/ppe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GIST_Credit_Analysis_Program\edited\elective_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6664EC74-082D-446E-972E-E4E038FE97F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C59723-AEF9-4547-B235-4FE47526AB7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="11460" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="157">
   <si>
     <t>교과목</t>
   </si>
@@ -468,6 +468,46 @@
   </si>
   <si>
     <t>GS3831</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술과 문화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS3735</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국의 경제발전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS3785</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가와 시민사회론</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS3786</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정치경제론</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학기술학의 이해: 과학사회논쟁의 쟁점과 윤리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학기술학의 이해: 비판적 디자인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS3833</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -902,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D383"/>
+  <dimension ref="A1:D387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1635,7 +1675,7 @@
         <v>2021</v>
       </c>
       <c r="D52" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -1654,7 +1694,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -1663,12 +1703,12 @@
         <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -1677,40 +1717,40 @@
         <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56">
         <v>2021</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57">
         <v>2021</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -1719,7 +1759,7 @@
         <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -1733,12 +1773,12 @@
         <v>2021</v>
       </c>
       <c r="D59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -1747,7 +1787,7 @@
         <v>2021</v>
       </c>
       <c r="D60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -1761,12 +1801,12 @@
         <v>2021</v>
       </c>
       <c r="D61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -1775,12 +1815,12 @@
         <v>2021</v>
       </c>
       <c r="D62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -1789,12 +1829,12 @@
         <v>2021</v>
       </c>
       <c r="D63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -1803,12 +1843,12 @@
         <v>2021</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -1817,12 +1857,12 @@
         <v>2021</v>
       </c>
       <c r="D65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -1831,12 +1871,12 @@
         <v>2021</v>
       </c>
       <c r="D66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -1845,12 +1885,12 @@
         <v>2021</v>
       </c>
       <c r="D67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -1859,12 +1899,12 @@
         <v>2021</v>
       </c>
       <c r="D68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -1873,12 +1913,12 @@
         <v>2021</v>
       </c>
       <c r="D69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -1887,12 +1927,12 @@
         <v>2021</v>
       </c>
       <c r="D70" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -1901,12 +1941,12 @@
         <v>2021</v>
       </c>
       <c r="D71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -1915,12 +1955,12 @@
         <v>2021</v>
       </c>
       <c r="D72" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -1929,12 +1969,12 @@
         <v>2021</v>
       </c>
       <c r="D73" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -1943,68 +1983,68 @@
         <v>2021</v>
       </c>
       <c r="D74" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
       <c r="C75">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D75" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D76" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
       <c r="C77">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D77" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
       <c r="C78">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D78" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -2013,12 +2053,12 @@
         <v>2020</v>
       </c>
       <c r="D79" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -2027,12 +2067,12 @@
         <v>2020</v>
       </c>
       <c r="D80" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -2041,12 +2081,12 @@
         <v>2020</v>
       </c>
       <c r="D81" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -2055,12 +2095,12 @@
         <v>2020</v>
       </c>
       <c r="D82" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B83">
         <v>3</v>
@@ -2069,12 +2109,12 @@
         <v>2020</v>
       </c>
       <c r="D83" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B84">
         <v>3</v>
@@ -2083,12 +2123,12 @@
         <v>2020</v>
       </c>
       <c r="D84" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -2097,12 +2137,12 @@
         <v>2020</v>
       </c>
       <c r="D85" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -2111,12 +2151,12 @@
         <v>2020</v>
       </c>
       <c r="D86" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -2125,12 +2165,12 @@
         <v>2020</v>
       </c>
       <c r="D87" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -2139,12 +2179,12 @@
         <v>2020</v>
       </c>
       <c r="D88" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -2153,12 +2193,12 @@
         <v>2020</v>
       </c>
       <c r="D89" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -2167,12 +2207,12 @@
         <v>2020</v>
       </c>
       <c r="D90" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -2181,12 +2221,12 @@
         <v>2020</v>
       </c>
       <c r="D91" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -2195,12 +2235,12 @@
         <v>2020</v>
       </c>
       <c r="D92" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -2209,12 +2249,12 @@
         <v>2020</v>
       </c>
       <c r="D93" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -2223,12 +2263,12 @@
         <v>2020</v>
       </c>
       <c r="D94" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -2237,12 +2277,12 @@
         <v>2020</v>
       </c>
       <c r="D95" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B96">
         <v>3</v>
@@ -2251,12 +2291,12 @@
         <v>2020</v>
       </c>
       <c r="D96" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -2265,12 +2305,12 @@
         <v>2020</v>
       </c>
       <c r="D97" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -2279,12 +2319,12 @@
         <v>2020</v>
       </c>
       <c r="D98" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B99">
         <v>3</v>
@@ -2293,12 +2333,12 @@
         <v>2020</v>
       </c>
       <c r="D99" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -2307,12 +2347,12 @@
         <v>2020</v>
       </c>
       <c r="D100" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -2321,12 +2361,12 @@
         <v>2020</v>
       </c>
       <c r="D101" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -2335,12 +2375,12 @@
         <v>2020</v>
       </c>
       <c r="D102" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B103">
         <v>3</v>
@@ -2349,12 +2389,12 @@
         <v>2020</v>
       </c>
       <c r="D103" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -2363,12 +2403,12 @@
         <v>2020</v>
       </c>
       <c r="D104" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B105">
         <v>3</v>
@@ -2377,12 +2417,12 @@
         <v>2020</v>
       </c>
       <c r="D105" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B106">
         <v>3</v>
@@ -2391,12 +2431,12 @@
         <v>2020</v>
       </c>
       <c r="D106" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B107">
         <v>3</v>
@@ -2405,12 +2445,12 @@
         <v>2020</v>
       </c>
       <c r="D107" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B108">
         <v>3</v>
@@ -2419,12 +2459,12 @@
         <v>2020</v>
       </c>
       <c r="D108" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -2433,12 +2473,12 @@
         <v>2020</v>
       </c>
       <c r="D109" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B110">
         <v>3</v>
@@ -2447,12 +2487,12 @@
         <v>2020</v>
       </c>
       <c r="D110" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B111">
         <v>3</v>
@@ -2461,12 +2501,12 @@
         <v>2020</v>
       </c>
       <c r="D111" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B112">
         <v>3</v>
@@ -2475,12 +2515,12 @@
         <v>2020</v>
       </c>
       <c r="D112" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B113">
         <v>3</v>
@@ -2489,12 +2529,12 @@
         <v>2020</v>
       </c>
       <c r="D113" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -2503,12 +2543,12 @@
         <v>2020</v>
       </c>
       <c r="D114" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -2517,12 +2557,12 @@
         <v>2020</v>
       </c>
       <c r="D115" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B116">
         <v>3</v>
@@ -2531,12 +2571,12 @@
         <v>2020</v>
       </c>
       <c r="D116" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B117">
         <v>3</v>
@@ -2545,12 +2585,12 @@
         <v>2020</v>
       </c>
       <c r="D117" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B118">
         <v>3</v>
@@ -2559,12 +2599,12 @@
         <v>2020</v>
       </c>
       <c r="D118" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B119">
         <v>3</v>
@@ -2573,12 +2613,12 @@
         <v>2020</v>
       </c>
       <c r="D119" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B120">
         <v>3</v>
@@ -2587,12 +2627,12 @@
         <v>2020</v>
       </c>
       <c r="D120" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -2601,12 +2641,12 @@
         <v>2020</v>
       </c>
       <c r="D121" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B122">
         <v>3</v>
@@ -2615,12 +2655,12 @@
         <v>2020</v>
       </c>
       <c r="D122" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B123">
         <v>3</v>
@@ -2629,12 +2669,12 @@
         <v>2020</v>
       </c>
       <c r="D123" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B124">
         <v>3</v>
@@ -2643,12 +2683,12 @@
         <v>2020</v>
       </c>
       <c r="D124" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B125">
         <v>3</v>
@@ -2657,12 +2697,12 @@
         <v>2020</v>
       </c>
       <c r="D125" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B126">
         <v>3</v>
@@ -2671,12 +2711,12 @@
         <v>2020</v>
       </c>
       <c r="D126" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B127">
         <v>3</v>
@@ -2685,12 +2725,12 @@
         <v>2020</v>
       </c>
       <c r="D127" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B128">
         <v>3</v>
@@ -2699,26 +2739,26 @@
         <v>2020</v>
       </c>
       <c r="D128" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C129">
         <v>2020</v>
       </c>
       <c r="D129" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B130">
         <v>3</v>
@@ -2727,12 +2767,12 @@
         <v>2020</v>
       </c>
       <c r="D130" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B131">
         <v>3</v>
@@ -2741,12 +2781,12 @@
         <v>2020</v>
       </c>
       <c r="D131" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B132">
         <v>3</v>
@@ -2755,26 +2795,26 @@
         <v>2020</v>
       </c>
       <c r="D132" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133">
         <v>2020</v>
       </c>
       <c r="D133" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -2783,12 +2823,12 @@
         <v>2020</v>
       </c>
       <c r="D134" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B135">
         <v>3</v>
@@ -2797,12 +2837,12 @@
         <v>2020</v>
       </c>
       <c r="D135" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B136">
         <v>3</v>
@@ -2811,12 +2851,12 @@
         <v>2020</v>
       </c>
       <c r="D136" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B137">
         <v>3</v>
@@ -2825,12 +2865,12 @@
         <v>2020</v>
       </c>
       <c r="D137" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B138">
         <v>3</v>
@@ -2839,12 +2879,12 @@
         <v>2020</v>
       </c>
       <c r="D138" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B139">
         <v>3</v>
@@ -2853,12 +2893,12 @@
         <v>2020</v>
       </c>
       <c r="D139" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B140">
         <v>3</v>
@@ -2867,12 +2907,12 @@
         <v>2020</v>
       </c>
       <c r="D140" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B141">
         <v>3</v>
@@ -2881,12 +2921,12 @@
         <v>2020</v>
       </c>
       <c r="D141" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B142">
         <v>3</v>
@@ -2895,12 +2935,12 @@
         <v>2020</v>
       </c>
       <c r="D142" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B143">
         <v>3</v>
@@ -2909,12 +2949,12 @@
         <v>2020</v>
       </c>
       <c r="D143" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B144">
         <v>3</v>
@@ -2923,12 +2963,12 @@
         <v>2020</v>
       </c>
       <c r="D144" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B145">
         <v>3</v>
@@ -2937,12 +2977,12 @@
         <v>2020</v>
       </c>
       <c r="D145" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B146">
         <v>3</v>
@@ -2951,12 +2991,12 @@
         <v>2020</v>
       </c>
       <c r="D146" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B147">
         <v>3</v>
@@ -2965,68 +3005,68 @@
         <v>2020</v>
       </c>
       <c r="D147" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B148">
         <v>3</v>
       </c>
       <c r="C148">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D148" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B149">
         <v>3</v>
       </c>
       <c r="C149">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D149" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B150">
         <v>3</v>
       </c>
       <c r="C150">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D150" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B151">
         <v>3</v>
       </c>
       <c r="C151">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D151" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B152">
         <v>3</v>
@@ -3035,12 +3075,12 @@
         <v>2019</v>
       </c>
       <c r="D152" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B153">
         <v>3</v>
@@ -3049,12 +3089,12 @@
         <v>2019</v>
       </c>
       <c r="D153" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B154">
         <v>3</v>
@@ -3063,12 +3103,12 @@
         <v>2019</v>
       </c>
       <c r="D154" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B155">
         <v>3</v>
@@ -3077,12 +3117,12 @@
         <v>2019</v>
       </c>
       <c r="D155" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B156">
         <v>3</v>
@@ -3091,12 +3131,12 @@
         <v>2019</v>
       </c>
       <c r="D156" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B157">
         <v>3</v>
@@ -3105,12 +3145,12 @@
         <v>2019</v>
       </c>
       <c r="D157" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B158">
         <v>3</v>
@@ -3119,12 +3159,12 @@
         <v>2019</v>
       </c>
       <c r="D158" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B159">
         <v>3</v>
@@ -3133,12 +3173,12 @@
         <v>2019</v>
       </c>
       <c r="D159" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B160">
         <v>3</v>
@@ -3147,12 +3187,12 @@
         <v>2019</v>
       </c>
       <c r="D160" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B161">
         <v>3</v>
@@ -3161,12 +3201,12 @@
         <v>2019</v>
       </c>
       <c r="D161" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B162">
         <v>3</v>
@@ -3175,12 +3215,12 @@
         <v>2019</v>
       </c>
       <c r="D162" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B163">
         <v>3</v>
@@ -3189,12 +3229,12 @@
         <v>2019</v>
       </c>
       <c r="D163" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B164">
         <v>3</v>
@@ -3203,12 +3243,12 @@
         <v>2019</v>
       </c>
       <c r="D164" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B165">
         <v>3</v>
@@ -3217,12 +3257,12 @@
         <v>2019</v>
       </c>
       <c r="D165" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B166">
         <v>3</v>
@@ -3231,12 +3271,12 @@
         <v>2019</v>
       </c>
       <c r="D166" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B167">
         <v>3</v>
@@ -3245,12 +3285,12 @@
         <v>2019</v>
       </c>
       <c r="D167" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B168">
         <v>3</v>
@@ -3259,12 +3299,12 @@
         <v>2019</v>
       </c>
       <c r="D168" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B169">
         <v>3</v>
@@ -3273,12 +3313,12 @@
         <v>2019</v>
       </c>
       <c r="D169" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B170">
         <v>3</v>
@@ -3287,12 +3327,12 @@
         <v>2019</v>
       </c>
       <c r="D170" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B171">
         <v>3</v>
@@ -3301,12 +3341,12 @@
         <v>2019</v>
       </c>
       <c r="D171" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B172">
         <v>3</v>
@@ -3315,12 +3355,12 @@
         <v>2019</v>
       </c>
       <c r="D172" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B173">
         <v>3</v>
@@ -3329,12 +3369,12 @@
         <v>2019</v>
       </c>
       <c r="D173" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B174">
         <v>3</v>
@@ -3343,12 +3383,12 @@
         <v>2019</v>
       </c>
       <c r="D174" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B175">
         <v>3</v>
@@ -3357,12 +3397,12 @@
         <v>2019</v>
       </c>
       <c r="D175" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B176">
         <v>3</v>
@@ -3371,12 +3411,12 @@
         <v>2019</v>
       </c>
       <c r="D176" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B177">
         <v>3</v>
@@ -3385,12 +3425,12 @@
         <v>2019</v>
       </c>
       <c r="D177" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B178">
         <v>3</v>
@@ -3399,12 +3439,12 @@
         <v>2019</v>
       </c>
       <c r="D178" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B179">
         <v>3</v>
@@ -3413,12 +3453,12 @@
         <v>2019</v>
       </c>
       <c r="D179" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B180">
         <v>3</v>
@@ -3427,12 +3467,12 @@
         <v>2019</v>
       </c>
       <c r="D180" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B181">
         <v>3</v>
@@ -3441,12 +3481,12 @@
         <v>2019</v>
       </c>
       <c r="D181" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B182">
         <v>3</v>
@@ -3455,12 +3495,12 @@
         <v>2019</v>
       </c>
       <c r="D182" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -3469,12 +3509,12 @@
         <v>2019</v>
       </c>
       <c r="D183" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B184">
         <v>3</v>
@@ -3483,12 +3523,12 @@
         <v>2019</v>
       </c>
       <c r="D184" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B185">
         <v>3</v>
@@ -3497,12 +3537,12 @@
         <v>2019</v>
       </c>
       <c r="D185" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B186">
         <v>3</v>
@@ -3511,12 +3551,12 @@
         <v>2019</v>
       </c>
       <c r="D186" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B187">
         <v>3</v>
@@ -3525,12 +3565,12 @@
         <v>2019</v>
       </c>
       <c r="D187" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B188">
         <v>3</v>
@@ -3539,12 +3579,12 @@
         <v>2019</v>
       </c>
       <c r="D188" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B189">
         <v>3</v>
@@ -3553,12 +3593,12 @@
         <v>2019</v>
       </c>
       <c r="D189" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B190">
         <v>3</v>
@@ -3567,12 +3607,12 @@
         <v>2019</v>
       </c>
       <c r="D190" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B191">
         <v>3</v>
@@ -3581,12 +3621,12 @@
         <v>2019</v>
       </c>
       <c r="D191" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -3595,12 +3635,12 @@
         <v>2019</v>
       </c>
       <c r="D192" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -3609,12 +3649,12 @@
         <v>2019</v>
       </c>
       <c r="D193" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B194">
         <v>3</v>
@@ -3623,12 +3663,12 @@
         <v>2019</v>
       </c>
       <c r="D194" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B195">
         <v>3</v>
@@ -3637,12 +3677,12 @@
         <v>2019</v>
       </c>
       <c r="D195" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B196">
         <v>3</v>
@@ -3651,12 +3691,12 @@
         <v>2019</v>
       </c>
       <c r="D196" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B197">
         <v>3</v>
@@ -3665,12 +3705,12 @@
         <v>2019</v>
       </c>
       <c r="D197" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B198">
         <v>3</v>
@@ -3679,12 +3719,12 @@
         <v>2019</v>
       </c>
       <c r="D198" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B199">
         <v>3</v>
@@ -3693,12 +3733,12 @@
         <v>2019</v>
       </c>
       <c r="D199" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B200">
         <v>3</v>
@@ -3707,12 +3747,12 @@
         <v>2019</v>
       </c>
       <c r="D200" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B201">
         <v>3</v>
@@ -3721,26 +3761,26 @@
         <v>2019</v>
       </c>
       <c r="D201" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C202">
         <v>2019</v>
       </c>
       <c r="D202" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B203">
         <v>3</v>
@@ -3749,12 +3789,12 @@
         <v>2019</v>
       </c>
       <c r="D203" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B204">
         <v>3</v>
@@ -3763,12 +3803,12 @@
         <v>2019</v>
       </c>
       <c r="D204" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B205">
         <v>3</v>
@@ -3777,26 +3817,26 @@
         <v>2019</v>
       </c>
       <c r="D205" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C206">
         <v>2019</v>
       </c>
       <c r="D206" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B207">
         <v>3</v>
@@ -3805,12 +3845,12 @@
         <v>2019</v>
       </c>
       <c r="D207" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B208">
         <v>3</v>
@@ -3819,12 +3859,12 @@
         <v>2019</v>
       </c>
       <c r="D208" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B209">
         <v>3</v>
@@ -3833,12 +3873,12 @@
         <v>2019</v>
       </c>
       <c r="D209" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B210">
         <v>3</v>
@@ -3847,12 +3887,12 @@
         <v>2019</v>
       </c>
       <c r="D210" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B211">
         <v>3</v>
@@ -3861,12 +3901,12 @@
         <v>2019</v>
       </c>
       <c r="D211" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B212">
         <v>3</v>
@@ -3875,12 +3915,12 @@
         <v>2019</v>
       </c>
       <c r="D212" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B213">
         <v>3</v>
@@ -3889,12 +3929,12 @@
         <v>2019</v>
       </c>
       <c r="D213" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B214">
         <v>3</v>
@@ -3903,12 +3943,12 @@
         <v>2019</v>
       </c>
       <c r="D214" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B215">
         <v>3</v>
@@ -3917,12 +3957,12 @@
         <v>2019</v>
       </c>
       <c r="D215" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B216">
         <v>3</v>
@@ -3931,12 +3971,12 @@
         <v>2019</v>
       </c>
       <c r="D216" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B217">
         <v>3</v>
@@ -3945,12 +3985,12 @@
         <v>2019</v>
       </c>
       <c r="D217" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B218">
         <v>3</v>
@@ -3959,12 +3999,12 @@
         <v>2019</v>
       </c>
       <c r="D218" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B219">
         <v>3</v>
@@ -3973,12 +4013,12 @@
         <v>2019</v>
       </c>
       <c r="D219" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B220">
         <v>3</v>
@@ -3987,68 +4027,68 @@
         <v>2019</v>
       </c>
       <c r="D220" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B221">
         <v>3</v>
       </c>
       <c r="C221">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D221" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B222">
         <v>3</v>
       </c>
       <c r="C222">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D222" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B223">
         <v>3</v>
       </c>
       <c r="C223">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D223" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B224">
         <v>3</v>
       </c>
       <c r="C224">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D224" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B225">
         <v>3</v>
@@ -4057,12 +4097,12 @@
         <v>2018</v>
       </c>
       <c r="D225" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -4071,12 +4111,12 @@
         <v>2018</v>
       </c>
       <c r="D226" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -4085,12 +4125,12 @@
         <v>2018</v>
       </c>
       <c r="D227" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -4099,12 +4139,12 @@
         <v>2018</v>
       </c>
       <c r="D228" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -4113,12 +4153,12 @@
         <v>2018</v>
       </c>
       <c r="D229" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B230">
         <v>3</v>
@@ -4127,12 +4167,12 @@
         <v>2018</v>
       </c>
       <c r="D230" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B231">
         <v>3</v>
@@ -4141,12 +4181,12 @@
         <v>2018</v>
       </c>
       <c r="D231" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B232">
         <v>3</v>
@@ -4155,12 +4195,12 @@
         <v>2018</v>
       </c>
       <c r="D232" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B233">
         <v>3</v>
@@ -4169,12 +4209,12 @@
         <v>2018</v>
       </c>
       <c r="D233" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B234">
         <v>3</v>
@@ -4183,12 +4223,12 @@
         <v>2018</v>
       </c>
       <c r="D234" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B235">
         <v>3</v>
@@ -4197,12 +4237,12 @@
         <v>2018</v>
       </c>
       <c r="D235" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B236">
         <v>3</v>
@@ -4211,12 +4251,12 @@
         <v>2018</v>
       </c>
       <c r="D236" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B237">
         <v>3</v>
@@ -4225,12 +4265,12 @@
         <v>2018</v>
       </c>
       <c r="D237" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B238">
         <v>3</v>
@@ -4239,12 +4279,12 @@
         <v>2018</v>
       </c>
       <c r="D238" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B239">
         <v>3</v>
@@ -4253,12 +4293,12 @@
         <v>2018</v>
       </c>
       <c r="D239" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B240">
         <v>3</v>
@@ -4267,12 +4307,12 @@
         <v>2018</v>
       </c>
       <c r="D240" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B241">
         <v>3</v>
@@ -4281,12 +4321,12 @@
         <v>2018</v>
       </c>
       <c r="D241" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B242">
         <v>3</v>
@@ -4295,12 +4335,12 @@
         <v>2018</v>
       </c>
       <c r="D242" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B243">
         <v>3</v>
@@ -4309,12 +4349,12 @@
         <v>2018</v>
       </c>
       <c r="D243" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B244">
         <v>3</v>
@@ -4323,12 +4363,12 @@
         <v>2018</v>
       </c>
       <c r="D244" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B245">
         <v>3</v>
@@ -4337,12 +4377,12 @@
         <v>2018</v>
       </c>
       <c r="D245" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B246">
         <v>3</v>
@@ -4351,12 +4391,12 @@
         <v>2018</v>
       </c>
       <c r="D246" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B247">
         <v>3</v>
@@ -4365,12 +4405,12 @@
         <v>2018</v>
       </c>
       <c r="D247" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B248">
         <v>3</v>
@@ -4379,12 +4419,12 @@
         <v>2018</v>
       </c>
       <c r="D248" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B249">
         <v>3</v>
@@ -4393,12 +4433,12 @@
         <v>2018</v>
       </c>
       <c r="D249" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B250">
         <v>3</v>
@@ -4407,12 +4447,12 @@
         <v>2018</v>
       </c>
       <c r="D250" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B251">
         <v>3</v>
@@ -4421,12 +4461,12 @@
         <v>2018</v>
       </c>
       <c r="D251" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B252">
         <v>3</v>
@@ -4435,12 +4475,12 @@
         <v>2018</v>
       </c>
       <c r="D252" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B253">
         <v>3</v>
@@ -4449,12 +4489,12 @@
         <v>2018</v>
       </c>
       <c r="D253" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B254">
         <v>3</v>
@@ -4463,12 +4503,12 @@
         <v>2018</v>
       </c>
       <c r="D254" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B255">
         <v>3</v>
@@ -4477,12 +4517,12 @@
         <v>2018</v>
       </c>
       <c r="D255" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B256">
         <v>3</v>
@@ -4491,12 +4531,12 @@
         <v>2018</v>
       </c>
       <c r="D256" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -4505,12 +4545,12 @@
         <v>2018</v>
       </c>
       <c r="D257" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B258">
         <v>3</v>
@@ -4519,12 +4559,12 @@
         <v>2018</v>
       </c>
       <c r="D258" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="B259">
         <v>3</v>
@@ -4533,12 +4573,12 @@
         <v>2018</v>
       </c>
       <c r="D259" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B260">
         <v>3</v>
@@ -4547,12 +4587,12 @@
         <v>2018</v>
       </c>
       <c r="D260" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B261">
         <v>3</v>
@@ -4561,12 +4601,12 @@
         <v>2018</v>
       </c>
       <c r="D261" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B262">
         <v>3</v>
@@ -4575,12 +4615,12 @@
         <v>2018</v>
       </c>
       <c r="D262" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="B263">
         <v>3</v>
@@ -4589,12 +4629,12 @@
         <v>2018</v>
       </c>
       <c r="D263" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B264">
         <v>3</v>
@@ -4603,12 +4643,12 @@
         <v>2018</v>
       </c>
       <c r="D264" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B265">
         <v>3</v>
@@ -4617,12 +4657,12 @@
         <v>2018</v>
       </c>
       <c r="D265" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B266">
         <v>3</v>
@@ -4631,12 +4671,12 @@
         <v>2018</v>
       </c>
       <c r="D266" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B267">
         <v>3</v>
@@ -4645,12 +4685,12 @@
         <v>2018</v>
       </c>
       <c r="D267" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B268">
         <v>3</v>
@@ -4659,12 +4699,12 @@
         <v>2018</v>
       </c>
       <c r="D268" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B269">
         <v>3</v>
@@ -4673,12 +4713,12 @@
         <v>2018</v>
       </c>
       <c r="D269" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B270">
         <v>3</v>
@@ -4687,12 +4727,12 @@
         <v>2018</v>
       </c>
       <c r="D270" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B271">
         <v>3</v>
@@ -4701,12 +4741,12 @@
         <v>2018</v>
       </c>
       <c r="D271" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B272">
         <v>3</v>
@@ -4715,12 +4755,12 @@
         <v>2018</v>
       </c>
       <c r="D272" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B273">
         <v>3</v>
@@ -4729,12 +4769,12 @@
         <v>2018</v>
       </c>
       <c r="D273" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B274">
         <v>3</v>
@@ -4743,12 +4783,12 @@
         <v>2018</v>
       </c>
       <c r="D274" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B275">
         <v>3</v>
@@ -4757,12 +4797,12 @@
         <v>2018</v>
       </c>
       <c r="D275" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B276">
         <v>3</v>
@@ -4771,12 +4811,12 @@
         <v>2018</v>
       </c>
       <c r="D276" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B277">
         <v>3</v>
@@ -4785,12 +4825,12 @@
         <v>2018</v>
       </c>
       <c r="D277" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B278">
         <v>3</v>
@@ -4799,12 +4839,12 @@
         <v>2018</v>
       </c>
       <c r="D278" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B279">
         <v>3</v>
@@ -4813,12 +4853,12 @@
         <v>2018</v>
       </c>
       <c r="D279" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B280">
         <v>3</v>
@@ -4827,12 +4867,12 @@
         <v>2018</v>
       </c>
       <c r="D280" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B281">
         <v>3</v>
@@ -4841,12 +4881,12 @@
         <v>2018</v>
       </c>
       <c r="D281" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B282">
         <v>3</v>
@@ -4855,12 +4895,12 @@
         <v>2018</v>
       </c>
       <c r="D282" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B283">
         <v>3</v>
@@ -4869,12 +4909,12 @@
         <v>2018</v>
       </c>
       <c r="D283" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B284">
         <v>3</v>
@@ -4883,12 +4923,12 @@
         <v>2018</v>
       </c>
       <c r="D284" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B285">
         <v>3</v>
@@ -4897,12 +4937,12 @@
         <v>2018</v>
       </c>
       <c r="D285" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B286">
         <v>3</v>
@@ -4911,12 +4951,12 @@
         <v>2018</v>
       </c>
       <c r="D286" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B287">
         <v>3</v>
@@ -4925,12 +4965,12 @@
         <v>2018</v>
       </c>
       <c r="D287" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B288">
         <v>3</v>
@@ -4939,12 +4979,12 @@
         <v>2018</v>
       </c>
       <c r="D288" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B289">
         <v>3</v>
@@ -4953,68 +4993,68 @@
         <v>2018</v>
       </c>
       <c r="D289" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B290">
         <v>3</v>
       </c>
       <c r="C290">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D290" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B291">
         <v>3</v>
       </c>
       <c r="C291">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D291" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B292">
         <v>3</v>
       </c>
       <c r="C292">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D292" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B293">
         <v>3</v>
       </c>
       <c r="C293">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D293" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B294">
         <v>3</v>
@@ -5023,12 +5063,12 @@
         <v>2017</v>
       </c>
       <c r="D294" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B295">
         <v>3</v>
@@ -5037,12 +5077,12 @@
         <v>2017</v>
       </c>
       <c r="D295" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B296">
         <v>3</v>
@@ -5051,12 +5091,12 @@
         <v>2017</v>
       </c>
       <c r="D296" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B297">
         <v>3</v>
@@ -5065,12 +5105,12 @@
         <v>2017</v>
       </c>
       <c r="D297" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B298">
         <v>3</v>
@@ -5079,12 +5119,12 @@
         <v>2017</v>
       </c>
       <c r="D298" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B299">
         <v>3</v>
@@ -5093,12 +5133,12 @@
         <v>2017</v>
       </c>
       <c r="D299" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B300">
         <v>3</v>
@@ -5107,12 +5147,12 @@
         <v>2017</v>
       </c>
       <c r="D300" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B301">
         <v>3</v>
@@ -5121,12 +5161,12 @@
         <v>2017</v>
       </c>
       <c r="D301" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B302">
         <v>3</v>
@@ -5135,12 +5175,12 @@
         <v>2017</v>
       </c>
       <c r="D302" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B303">
         <v>3</v>
@@ -5149,12 +5189,12 @@
         <v>2017</v>
       </c>
       <c r="D303" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B304">
         <v>3</v>
@@ -5163,12 +5203,12 @@
         <v>2017</v>
       </c>
       <c r="D304" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B305">
         <v>3</v>
@@ -5177,12 +5217,12 @@
         <v>2017</v>
       </c>
       <c r="D305" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B306">
         <v>3</v>
@@ -5191,12 +5231,12 @@
         <v>2017</v>
       </c>
       <c r="D306" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B307">
         <v>3</v>
@@ -5205,12 +5245,12 @@
         <v>2017</v>
       </c>
       <c r="D307" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B308">
         <v>3</v>
@@ -5219,12 +5259,12 @@
         <v>2017</v>
       </c>
       <c r="D308" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B309">
         <v>3</v>
@@ -5233,12 +5273,12 @@
         <v>2017</v>
       </c>
       <c r="D309" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B310">
         <v>3</v>
@@ -5247,12 +5287,12 @@
         <v>2017</v>
       </c>
       <c r="D310" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B311">
         <v>3</v>
@@ -5261,12 +5301,12 @@
         <v>2017</v>
       </c>
       <c r="D311" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B312">
         <v>3</v>
@@ -5275,12 +5315,12 @@
         <v>2017</v>
       </c>
       <c r="D312" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B313">
         <v>3</v>
@@ -5289,12 +5329,12 @@
         <v>2017</v>
       </c>
       <c r="D313" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B314">
         <v>3</v>
@@ -5303,12 +5343,12 @@
         <v>2017</v>
       </c>
       <c r="D314" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B315">
         <v>3</v>
@@ -5317,12 +5357,12 @@
         <v>2017</v>
       </c>
       <c r="D315" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B316">
         <v>3</v>
@@ -5331,12 +5371,12 @@
         <v>2017</v>
       </c>
       <c r="D316" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B317">
         <v>3</v>
@@ -5345,12 +5385,12 @@
         <v>2017</v>
       </c>
       <c r="D317" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B318">
         <v>3</v>
@@ -5359,12 +5399,12 @@
         <v>2017</v>
       </c>
       <c r="D318" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B319">
         <v>3</v>
@@ -5373,12 +5413,12 @@
         <v>2017</v>
       </c>
       <c r="D319" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B320">
         <v>3</v>
@@ -5387,12 +5427,12 @@
         <v>2017</v>
       </c>
       <c r="D320" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B321">
         <v>3</v>
@@ -5401,12 +5441,12 @@
         <v>2017</v>
       </c>
       <c r="D321" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B322">
         <v>3</v>
@@ -5415,12 +5455,12 @@
         <v>2017</v>
       </c>
       <c r="D322" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B323">
         <v>3</v>
@@ -5429,12 +5469,12 @@
         <v>2017</v>
       </c>
       <c r="D323" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B324">
         <v>3</v>
@@ -5443,12 +5483,12 @@
         <v>2017</v>
       </c>
       <c r="D324" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B325">
         <v>3</v>
@@ -5457,12 +5497,12 @@
         <v>2017</v>
       </c>
       <c r="D325" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="B326">
         <v>3</v>
@@ -5471,12 +5511,12 @@
         <v>2017</v>
       </c>
       <c r="D326" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B327">
         <v>3</v>
@@ -5485,12 +5525,12 @@
         <v>2017</v>
       </c>
       <c r="D327" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B328">
         <v>3</v>
@@ -5499,12 +5539,12 @@
         <v>2017</v>
       </c>
       <c r="D328" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B329">
         <v>3</v>
@@ -5513,12 +5553,12 @@
         <v>2017</v>
       </c>
       <c r="D329" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="B330">
         <v>3</v>
@@ -5527,12 +5567,12 @@
         <v>2017</v>
       </c>
       <c r="D330" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B331">
         <v>3</v>
@@ -5541,12 +5581,12 @@
         <v>2017</v>
       </c>
       <c r="D331" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B332">
         <v>3</v>
@@ -5555,12 +5595,12 @@
         <v>2017</v>
       </c>
       <c r="D332" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B333">
         <v>3</v>
@@ -5569,12 +5609,12 @@
         <v>2017</v>
       </c>
       <c r="D333" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B334">
         <v>3</v>
@@ -5583,12 +5623,12 @@
         <v>2017</v>
       </c>
       <c r="D334" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B335">
         <v>3</v>
@@ -5597,12 +5637,12 @@
         <v>2017</v>
       </c>
       <c r="D335" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B336">
         <v>3</v>
@@ -5611,12 +5651,12 @@
         <v>2017</v>
       </c>
       <c r="D336" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B337">
         <v>3</v>
@@ -5625,12 +5665,12 @@
         <v>2017</v>
       </c>
       <c r="D337" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B338">
         <v>3</v>
@@ -5639,12 +5679,12 @@
         <v>2017</v>
       </c>
       <c r="D338" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B339">
         <v>3</v>
@@ -5653,12 +5693,12 @@
         <v>2017</v>
       </c>
       <c r="D339" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B340">
         <v>3</v>
@@ -5667,12 +5707,12 @@
         <v>2017</v>
       </c>
       <c r="D340" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B341">
         <v>3</v>
@@ -5681,12 +5721,12 @@
         <v>2017</v>
       </c>
       <c r="D341" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B342">
         <v>3</v>
@@ -5695,12 +5735,12 @@
         <v>2017</v>
       </c>
       <c r="D342" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B343">
         <v>3</v>
@@ -5709,12 +5749,12 @@
         <v>2017</v>
       </c>
       <c r="D343" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B344">
         <v>3</v>
@@ -5723,12 +5763,12 @@
         <v>2017</v>
       </c>
       <c r="D344" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B345">
         <v>3</v>
@@ -5737,12 +5777,12 @@
         <v>2017</v>
       </c>
       <c r="D345" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A346" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B346">
         <v>3</v>
@@ -5751,12 +5791,12 @@
         <v>2017</v>
       </c>
       <c r="D346" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B347">
         <v>3</v>
@@ -5765,68 +5805,68 @@
         <v>2017</v>
       </c>
       <c r="D347" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B348">
         <v>3</v>
       </c>
       <c r="C348">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D348" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B349">
         <v>3</v>
       </c>
       <c r="C349">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D349" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B350">
         <v>3</v>
       </c>
       <c r="C350">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D350" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B351">
         <v>3</v>
       </c>
       <c r="C351">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D351" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B352">
         <v>3</v>
@@ -5835,12 +5875,12 @@
         <v>2016</v>
       </c>
       <c r="D352" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B353">
         <v>3</v>
@@ -5849,12 +5889,12 @@
         <v>2016</v>
       </c>
       <c r="D353" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B354">
         <v>3</v>
@@ -5863,12 +5903,12 @@
         <v>2016</v>
       </c>
       <c r="D354" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B355">
         <v>3</v>
@@ -5877,12 +5917,12 @@
         <v>2016</v>
       </c>
       <c r="D355" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B356">
         <v>3</v>
@@ -5891,12 +5931,12 @@
         <v>2016</v>
       </c>
       <c r="D356" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B357">
         <v>3</v>
@@ -5905,12 +5945,12 @@
         <v>2016</v>
       </c>
       <c r="D357" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B358">
         <v>3</v>
@@ -5919,12 +5959,12 @@
         <v>2016</v>
       </c>
       <c r="D358" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B359">
         <v>3</v>
@@ -5933,12 +5973,12 @@
         <v>2016</v>
       </c>
       <c r="D359" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B360">
         <v>3</v>
@@ -5947,12 +5987,12 @@
         <v>2016</v>
       </c>
       <c r="D360" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B361">
         <v>3</v>
@@ -5961,12 +6001,12 @@
         <v>2016</v>
       </c>
       <c r="D361" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B362">
         <v>3</v>
@@ -5975,12 +6015,12 @@
         <v>2016</v>
       </c>
       <c r="D362" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="B363">
         <v>3</v>
@@ -5989,12 +6029,12 @@
         <v>2016</v>
       </c>
       <c r="D363" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A364" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B364">
         <v>3</v>
@@ -6003,12 +6043,12 @@
         <v>2016</v>
       </c>
       <c r="D364" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B365">
         <v>3</v>
@@ -6017,12 +6057,12 @@
         <v>2016</v>
       </c>
       <c r="D365" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B366">
         <v>3</v>
@@ -6031,12 +6071,12 @@
         <v>2016</v>
       </c>
       <c r="D366" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="B367">
         <v>3</v>
@@ -6045,12 +6085,12 @@
         <v>2016</v>
       </c>
       <c r="D367" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B368">
         <v>3</v>
@@ -6059,12 +6099,12 @@
         <v>2016</v>
       </c>
       <c r="D368" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B369">
         <v>3</v>
@@ -6073,12 +6113,12 @@
         <v>2016</v>
       </c>
       <c r="D369" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="B370">
         <v>3</v>
@@ -6087,12 +6127,12 @@
         <v>2016</v>
       </c>
       <c r="D370" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B371">
         <v>3</v>
@@ -6101,12 +6141,12 @@
         <v>2016</v>
       </c>
       <c r="D371" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B372">
         <v>3</v>
@@ -6115,12 +6155,12 @@
         <v>2016</v>
       </c>
       <c r="D372" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B373">
         <v>3</v>
@@ -6129,12 +6169,12 @@
         <v>2016</v>
       </c>
       <c r="D373" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A374" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="B374">
         <v>3</v>
@@ -6143,12 +6183,12 @@
         <v>2016</v>
       </c>
       <c r="D374" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A375" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B375">
         <v>3</v>
@@ -6157,12 +6197,12 @@
         <v>2016</v>
       </c>
       <c r="D375" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A376" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B376">
         <v>3</v>
@@ -6171,12 +6211,12 @@
         <v>2016</v>
       </c>
       <c r="D376" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A377" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B377">
         <v>3</v>
@@ -6185,12 +6225,12 @@
         <v>2016</v>
       </c>
       <c r="D377" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A378" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B378">
         <v>3</v>
@@ -6199,12 +6239,12 @@
         <v>2016</v>
       </c>
       <c r="D378" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A379" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B379">
         <v>3</v>
@@ -6213,12 +6253,12 @@
         <v>2016</v>
       </c>
       <c r="D379" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A380" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B380">
         <v>3</v>
@@ -6227,12 +6267,12 @@
         <v>2016</v>
       </c>
       <c r="D380" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A381" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B381">
         <v>3</v>
@@ -6241,12 +6281,12 @@
         <v>2016</v>
       </c>
       <c r="D381" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A382" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="B382">
         <v>3</v>
@@ -6255,12 +6295,12 @@
         <v>2016</v>
       </c>
       <c r="D382" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B383">
         <v>3</v>
@@ -6269,6 +6309,62 @@
         <v>2016</v>
       </c>
       <c r="D383" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A384" t="s">
+        <v>53</v>
+      </c>
+      <c r="B384">
+        <v>3</v>
+      </c>
+      <c r="C384">
+        <v>2016</v>
+      </c>
+      <c r="D384" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A385" t="s">
+        <v>55</v>
+      </c>
+      <c r="B385">
+        <v>3</v>
+      </c>
+      <c r="C385">
+        <v>2016</v>
+      </c>
+      <c r="D385" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A386" t="s">
+        <v>144</v>
+      </c>
+      <c r="B386">
+        <v>3</v>
+      </c>
+      <c r="C386">
+        <v>2016</v>
+      </c>
+      <c r="D386" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A387" t="s">
+        <v>62</v>
+      </c>
+      <c r="B387">
+        <v>3</v>
+      </c>
+      <c r="C387">
+        <v>2016</v>
+      </c>
+      <c r="D387" t="s">
         <v>116</v>
       </c>
     </row>

--- a/edited/elective_list/ppe.xlsx
+++ b/edited/elective_list/ppe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GIST_Credit_Analysis_Program\edited\elective_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C59723-AEF9-4547-B235-4FE47526AB7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0374AF-9FBD-421C-900C-FEB9C9FC1C9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="11460" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="158">
   <si>
     <t>교과목</t>
   </si>
@@ -507,7 +507,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GS3833</t>
+    <t>GS2833</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비판적 디자인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -942,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D387"/>
+  <dimension ref="A1:D388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1666,7 +1670,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -1675,7 +1679,7 @@
         <v>2021</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -1689,12 +1693,12 @@
         <v>2021</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -1703,7 +1707,7 @@
         <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -1717,7 +1721,7 @@
         <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -1974,7 +1978,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -1983,12 +1987,12 @@
         <v>2021</v>
       </c>
       <c r="D74" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -1997,12 +2001,12 @@
         <v>2021</v>
       </c>
       <c r="D75" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -2011,7 +2015,7 @@
         <v>2021</v>
       </c>
       <c r="D76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
@@ -2025,12 +2029,12 @@
         <v>2021</v>
       </c>
       <c r="D77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -2039,26 +2043,26 @@
         <v>2021</v>
       </c>
       <c r="D78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D79" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -2067,12 +2071,12 @@
         <v>2020</v>
       </c>
       <c r="D80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -2081,12 +2085,12 @@
         <v>2020</v>
       </c>
       <c r="D81" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -2095,12 +2099,12 @@
         <v>2020</v>
       </c>
       <c r="D82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B83">
         <v>3</v>
@@ -2109,12 +2113,12 @@
         <v>2020</v>
       </c>
       <c r="D83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B84">
         <v>3</v>
@@ -2123,7 +2127,7 @@
         <v>2020</v>
       </c>
       <c r="D84" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -2137,12 +2141,12 @@
         <v>2020</v>
       </c>
       <c r="D85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -2151,12 +2155,12 @@
         <v>2020</v>
       </c>
       <c r="D86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -2165,12 +2169,12 @@
         <v>2020</v>
       </c>
       <c r="D87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -2179,12 +2183,12 @@
         <v>2020</v>
       </c>
       <c r="D88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -2193,12 +2197,12 @@
         <v>2020</v>
       </c>
       <c r="D89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -2207,12 +2211,12 @@
         <v>2020</v>
       </c>
       <c r="D90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -2221,12 +2225,12 @@
         <v>2020</v>
       </c>
       <c r="D91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -2235,12 +2239,12 @@
         <v>2020</v>
       </c>
       <c r="D92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -2249,12 +2253,12 @@
         <v>2020</v>
       </c>
       <c r="D93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -2263,12 +2267,12 @@
         <v>2020</v>
       </c>
       <c r="D94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -2277,12 +2281,12 @@
         <v>2020</v>
       </c>
       <c r="D95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B96">
         <v>3</v>
@@ -2291,12 +2295,12 @@
         <v>2020</v>
       </c>
       <c r="D96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -2305,12 +2309,12 @@
         <v>2020</v>
       </c>
       <c r="D97" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -2319,12 +2323,12 @@
         <v>2020</v>
       </c>
       <c r="D98" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B99">
         <v>3</v>
@@ -2333,12 +2337,12 @@
         <v>2020</v>
       </c>
       <c r="D99" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -2347,12 +2351,12 @@
         <v>2020</v>
       </c>
       <c r="D100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -2361,12 +2365,12 @@
         <v>2020</v>
       </c>
       <c r="D101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -2375,12 +2379,12 @@
         <v>2020</v>
       </c>
       <c r="D102" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B103">
         <v>3</v>
@@ -2389,7 +2393,7 @@
         <v>2020</v>
       </c>
       <c r="D103" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
@@ -2403,7 +2407,7 @@
         <v>2020</v>
       </c>
       <c r="D104" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
@@ -2417,7 +2421,7 @@
         <v>2020</v>
       </c>
       <c r="D105" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
@@ -2431,12 +2435,12 @@
         <v>2020</v>
       </c>
       <c r="D106" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B107">
         <v>3</v>
@@ -2445,7 +2449,7 @@
         <v>2020</v>
       </c>
       <c r="D107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
@@ -2459,12 +2463,12 @@
         <v>2020</v>
       </c>
       <c r="D108" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -2473,12 +2477,12 @@
         <v>2020</v>
       </c>
       <c r="D109" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B110">
         <v>3</v>
@@ -2487,12 +2491,12 @@
         <v>2020</v>
       </c>
       <c r="D110" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B111">
         <v>3</v>
@@ -2501,12 +2505,12 @@
         <v>2020</v>
       </c>
       <c r="D111" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B112">
         <v>3</v>
@@ -2515,7 +2519,7 @@
         <v>2020</v>
       </c>
       <c r="D112" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
@@ -2529,12 +2533,12 @@
         <v>2020</v>
       </c>
       <c r="D113" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -2543,12 +2547,12 @@
         <v>2020</v>
       </c>
       <c r="D114" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -2557,12 +2561,12 @@
         <v>2020</v>
       </c>
       <c r="D115" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B116">
         <v>3</v>
@@ -2571,12 +2575,12 @@
         <v>2020</v>
       </c>
       <c r="D116" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B117">
         <v>3</v>
@@ -2585,12 +2589,12 @@
         <v>2020</v>
       </c>
       <c r="D117" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B118">
         <v>3</v>
@@ -2599,12 +2603,12 @@
         <v>2020</v>
       </c>
       <c r="D118" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B119">
         <v>3</v>
@@ -2613,12 +2617,12 @@
         <v>2020</v>
       </c>
       <c r="D119" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B120">
         <v>3</v>
@@ -2627,12 +2631,12 @@
         <v>2020</v>
       </c>
       <c r="D120" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -2641,12 +2645,12 @@
         <v>2020</v>
       </c>
       <c r="D121" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B122">
         <v>3</v>
@@ -2655,12 +2659,12 @@
         <v>2020</v>
       </c>
       <c r="D122" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B123">
         <v>3</v>
@@ -2669,12 +2673,12 @@
         <v>2020</v>
       </c>
       <c r="D123" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B124">
         <v>3</v>
@@ -2683,12 +2687,12 @@
         <v>2020</v>
       </c>
       <c r="D124" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B125">
         <v>3</v>
@@ -2697,12 +2701,12 @@
         <v>2020</v>
       </c>
       <c r="D125" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B126">
         <v>3</v>
@@ -2711,12 +2715,12 @@
         <v>2020</v>
       </c>
       <c r="D126" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B127">
         <v>3</v>
@@ -2725,12 +2729,12 @@
         <v>2020</v>
       </c>
       <c r="D127" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B128">
         <v>3</v>
@@ -2739,12 +2743,12 @@
         <v>2020</v>
       </c>
       <c r="D128" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B129">
         <v>3</v>
@@ -2753,12 +2757,12 @@
         <v>2020</v>
       </c>
       <c r="D129" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B130">
         <v>3</v>
@@ -2767,12 +2771,12 @@
         <v>2020</v>
       </c>
       <c r="D130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B131">
         <v>3</v>
@@ -2781,12 +2785,12 @@
         <v>2020</v>
       </c>
       <c r="D131" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B132">
         <v>3</v>
@@ -2795,40 +2799,40 @@
         <v>2020</v>
       </c>
       <c r="D132" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C133">
         <v>2020</v>
       </c>
       <c r="D133" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C134">
         <v>2020</v>
       </c>
       <c r="D134" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B135">
         <v>3</v>
@@ -2837,7 +2841,7 @@
         <v>2020</v>
       </c>
       <c r="D135" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
@@ -2851,12 +2855,12 @@
         <v>2020</v>
       </c>
       <c r="D136" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B137">
         <v>3</v>
@@ -2865,7 +2869,7 @@
         <v>2020</v>
       </c>
       <c r="D137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
@@ -2879,12 +2883,12 @@
         <v>2020</v>
       </c>
       <c r="D138" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B139">
         <v>3</v>
@@ -2893,12 +2897,12 @@
         <v>2020</v>
       </c>
       <c r="D139" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B140">
         <v>3</v>
@@ -2907,12 +2911,12 @@
         <v>2020</v>
       </c>
       <c r="D140" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B141">
         <v>3</v>
@@ -2921,7 +2925,7 @@
         <v>2020</v>
       </c>
       <c r="D141" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
@@ -2935,12 +2939,12 @@
         <v>2020</v>
       </c>
       <c r="D142" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B143">
         <v>3</v>
@@ -2949,12 +2953,12 @@
         <v>2020</v>
       </c>
       <c r="D143" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B144">
         <v>3</v>
@@ -2963,12 +2967,12 @@
         <v>2020</v>
       </c>
       <c r="D144" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B145">
         <v>3</v>
@@ -2977,12 +2981,12 @@
         <v>2020</v>
       </c>
       <c r="D145" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B146">
         <v>3</v>
@@ -2991,12 +2995,12 @@
         <v>2020</v>
       </c>
       <c r="D146" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B147">
         <v>3</v>
@@ -3005,12 +3009,12 @@
         <v>2020</v>
       </c>
       <c r="D147" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B148">
         <v>3</v>
@@ -3019,12 +3023,12 @@
         <v>2020</v>
       </c>
       <c r="D148" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B149">
         <v>3</v>
@@ -3033,7 +3037,7 @@
         <v>2020</v>
       </c>
       <c r="D149" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
@@ -3047,12 +3051,12 @@
         <v>2020</v>
       </c>
       <c r="D150" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B151">
         <v>3</v>
@@ -3061,26 +3065,26 @@
         <v>2020</v>
       </c>
       <c r="D151" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B152">
         <v>3</v>
       </c>
       <c r="C152">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D152" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B153">
         <v>3</v>
@@ -3089,12 +3093,12 @@
         <v>2019</v>
       </c>
       <c r="D153" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B154">
         <v>3</v>
@@ -3103,12 +3107,12 @@
         <v>2019</v>
       </c>
       <c r="D154" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B155">
         <v>3</v>
@@ -3117,12 +3121,12 @@
         <v>2019</v>
       </c>
       <c r="D155" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B156">
         <v>3</v>
@@ -3131,12 +3135,12 @@
         <v>2019</v>
       </c>
       <c r="D156" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B157">
         <v>3</v>
@@ -3145,7 +3149,7 @@
         <v>2019</v>
       </c>
       <c r="D157" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
@@ -3159,12 +3163,12 @@
         <v>2019</v>
       </c>
       <c r="D158" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B159">
         <v>3</v>
@@ -3173,12 +3177,12 @@
         <v>2019</v>
       </c>
       <c r="D159" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B160">
         <v>3</v>
@@ -3187,12 +3191,12 @@
         <v>2019</v>
       </c>
       <c r="D160" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B161">
         <v>3</v>
@@ -3201,12 +3205,12 @@
         <v>2019</v>
       </c>
       <c r="D161" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B162">
         <v>3</v>
@@ -3215,12 +3219,12 @@
         <v>2019</v>
       </c>
       <c r="D162" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B163">
         <v>3</v>
@@ -3229,12 +3233,12 @@
         <v>2019</v>
       </c>
       <c r="D163" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B164">
         <v>3</v>
@@ -3243,12 +3247,12 @@
         <v>2019</v>
       </c>
       <c r="D164" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B165">
         <v>3</v>
@@ -3257,12 +3261,12 @@
         <v>2019</v>
       </c>
       <c r="D165" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B166">
         <v>3</v>
@@ -3271,12 +3275,12 @@
         <v>2019</v>
       </c>
       <c r="D166" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B167">
         <v>3</v>
@@ -3285,12 +3289,12 @@
         <v>2019</v>
       </c>
       <c r="D167" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B168">
         <v>3</v>
@@ -3299,12 +3303,12 @@
         <v>2019</v>
       </c>
       <c r="D168" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B169">
         <v>3</v>
@@ -3313,12 +3317,12 @@
         <v>2019</v>
       </c>
       <c r="D169" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B170">
         <v>3</v>
@@ -3327,12 +3331,12 @@
         <v>2019</v>
       </c>
       <c r="D170" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B171">
         <v>3</v>
@@ -3341,12 +3345,12 @@
         <v>2019</v>
       </c>
       <c r="D171" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B172">
         <v>3</v>
@@ -3355,12 +3359,12 @@
         <v>2019</v>
       </c>
       <c r="D172" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B173">
         <v>3</v>
@@ -3369,12 +3373,12 @@
         <v>2019</v>
       </c>
       <c r="D173" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B174">
         <v>3</v>
@@ -3383,12 +3387,12 @@
         <v>2019</v>
       </c>
       <c r="D174" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B175">
         <v>3</v>
@@ -3397,12 +3401,12 @@
         <v>2019</v>
       </c>
       <c r="D175" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B176">
         <v>3</v>
@@ -3411,7 +3415,7 @@
         <v>2019</v>
       </c>
       <c r="D176" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
@@ -3425,7 +3429,7 @@
         <v>2019</v>
       </c>
       <c r="D177" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
@@ -3439,7 +3443,7 @@
         <v>2019</v>
       </c>
       <c r="D178" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
@@ -3453,12 +3457,12 @@
         <v>2019</v>
       </c>
       <c r="D179" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B180">
         <v>3</v>
@@ -3467,7 +3471,7 @@
         <v>2019</v>
       </c>
       <c r="D180" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
@@ -3481,12 +3485,12 @@
         <v>2019</v>
       </c>
       <c r="D181" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B182">
         <v>3</v>
@@ -3495,12 +3499,12 @@
         <v>2019</v>
       </c>
       <c r="D182" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -3509,12 +3513,12 @@
         <v>2019</v>
       </c>
       <c r="D183" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B184">
         <v>3</v>
@@ -3523,12 +3527,12 @@
         <v>2019</v>
       </c>
       <c r="D184" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B185">
         <v>3</v>
@@ -3537,7 +3541,7 @@
         <v>2019</v>
       </c>
       <c r="D185" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
@@ -3551,12 +3555,12 @@
         <v>2019</v>
       </c>
       <c r="D186" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B187">
         <v>3</v>
@@ -3565,12 +3569,12 @@
         <v>2019</v>
       </c>
       <c r="D187" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B188">
         <v>3</v>
@@ -3579,12 +3583,12 @@
         <v>2019</v>
       </c>
       <c r="D188" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B189">
         <v>3</v>
@@ -3593,12 +3597,12 @@
         <v>2019</v>
       </c>
       <c r="D189" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B190">
         <v>3</v>
@@ -3607,12 +3611,12 @@
         <v>2019</v>
       </c>
       <c r="D190" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B191">
         <v>3</v>
@@ -3621,12 +3625,12 @@
         <v>2019</v>
       </c>
       <c r="D191" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -3635,12 +3639,12 @@
         <v>2019</v>
       </c>
       <c r="D192" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -3649,12 +3653,12 @@
         <v>2019</v>
       </c>
       <c r="D193" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B194">
         <v>3</v>
@@ -3663,12 +3667,12 @@
         <v>2019</v>
       </c>
       <c r="D194" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B195">
         <v>3</v>
@@ -3677,12 +3681,12 @@
         <v>2019</v>
       </c>
       <c r="D195" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B196">
         <v>3</v>
@@ -3691,12 +3695,12 @@
         <v>2019</v>
       </c>
       <c r="D196" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B197">
         <v>3</v>
@@ -3705,12 +3709,12 @@
         <v>2019</v>
       </c>
       <c r="D197" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B198">
         <v>3</v>
@@ -3719,12 +3723,12 @@
         <v>2019</v>
       </c>
       <c r="D198" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B199">
         <v>3</v>
@@ -3733,12 +3737,12 @@
         <v>2019</v>
       </c>
       <c r="D199" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B200">
         <v>3</v>
@@ -3747,12 +3751,12 @@
         <v>2019</v>
       </c>
       <c r="D200" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B201">
         <v>3</v>
@@ -3761,12 +3765,12 @@
         <v>2019</v>
       </c>
       <c r="D201" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B202">
         <v>3</v>
@@ -3775,12 +3779,12 @@
         <v>2019</v>
       </c>
       <c r="D202" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B203">
         <v>3</v>
@@ -3789,12 +3793,12 @@
         <v>2019</v>
       </c>
       <c r="D203" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B204">
         <v>3</v>
@@ -3803,12 +3807,12 @@
         <v>2019</v>
       </c>
       <c r="D204" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B205">
         <v>3</v>
@@ -3817,40 +3821,40 @@
         <v>2019</v>
       </c>
       <c r="D205" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C206">
         <v>2019</v>
       </c>
       <c r="D206" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B207">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C207">
         <v>2019</v>
       </c>
       <c r="D207" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B208">
         <v>3</v>
@@ -3859,7 +3863,7 @@
         <v>2019</v>
       </c>
       <c r="D208" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
@@ -3873,12 +3877,12 @@
         <v>2019</v>
       </c>
       <c r="D209" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B210">
         <v>3</v>
@@ -3887,7 +3891,7 @@
         <v>2019</v>
       </c>
       <c r="D210" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
@@ -3901,12 +3905,12 @@
         <v>2019</v>
       </c>
       <c r="D211" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B212">
         <v>3</v>
@@ -3915,12 +3919,12 @@
         <v>2019</v>
       </c>
       <c r="D212" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B213">
         <v>3</v>
@@ -3929,12 +3933,12 @@
         <v>2019</v>
       </c>
       <c r="D213" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B214">
         <v>3</v>
@@ -3943,7 +3947,7 @@
         <v>2019</v>
       </c>
       <c r="D214" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
@@ -3957,12 +3961,12 @@
         <v>2019</v>
       </c>
       <c r="D215" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B216">
         <v>3</v>
@@ -3971,12 +3975,12 @@
         <v>2019</v>
       </c>
       <c r="D216" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B217">
         <v>3</v>
@@ -3985,12 +3989,12 @@
         <v>2019</v>
       </c>
       <c r="D217" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B218">
         <v>3</v>
@@ -3999,12 +4003,12 @@
         <v>2019</v>
       </c>
       <c r="D218" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B219">
         <v>3</v>
@@ -4013,12 +4017,12 @@
         <v>2019</v>
       </c>
       <c r="D219" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B220">
         <v>3</v>
@@ -4027,12 +4031,12 @@
         <v>2019</v>
       </c>
       <c r="D220" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B221">
         <v>3</v>
@@ -4041,12 +4045,12 @@
         <v>2019</v>
       </c>
       <c r="D221" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B222">
         <v>3</v>
@@ -4055,7 +4059,7 @@
         <v>2019</v>
       </c>
       <c r="D222" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
@@ -4069,12 +4073,12 @@
         <v>2019</v>
       </c>
       <c r="D223" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B224">
         <v>3</v>
@@ -4083,26 +4087,26 @@
         <v>2019</v>
       </c>
       <c r="D224" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B225">
         <v>3</v>
       </c>
       <c r="C225">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D225" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B226">
         <v>3</v>
@@ -4111,12 +4115,12 @@
         <v>2018</v>
       </c>
       <c r="D226" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -4125,12 +4129,12 @@
         <v>2018</v>
       </c>
       <c r="D227" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B228">
         <v>3</v>
@@ -4139,12 +4143,12 @@
         <v>2018</v>
       </c>
       <c r="D228" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -4153,12 +4157,12 @@
         <v>2018</v>
       </c>
       <c r="D229" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B230">
         <v>3</v>
@@ -4167,7 +4171,7 @@
         <v>2018</v>
       </c>
       <c r="D230" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
@@ -4181,12 +4185,12 @@
         <v>2018</v>
       </c>
       <c r="D231" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B232">
         <v>3</v>
@@ -4195,12 +4199,12 @@
         <v>2018</v>
       </c>
       <c r="D232" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B233">
         <v>3</v>
@@ -4209,12 +4213,12 @@
         <v>2018</v>
       </c>
       <c r="D233" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B234">
         <v>3</v>
@@ -4223,12 +4227,12 @@
         <v>2018</v>
       </c>
       <c r="D234" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B235">
         <v>3</v>
@@ -4237,12 +4241,12 @@
         <v>2018</v>
       </c>
       <c r="D235" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B236">
         <v>3</v>
@@ -4251,12 +4255,12 @@
         <v>2018</v>
       </c>
       <c r="D236" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B237">
         <v>3</v>
@@ -4265,12 +4269,12 @@
         <v>2018</v>
       </c>
       <c r="D237" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B238">
         <v>3</v>
@@ -4279,12 +4283,12 @@
         <v>2018</v>
       </c>
       <c r="D238" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B239">
         <v>3</v>
@@ -4293,12 +4297,12 @@
         <v>2018</v>
       </c>
       <c r="D239" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B240">
         <v>3</v>
@@ -4307,12 +4311,12 @@
         <v>2018</v>
       </c>
       <c r="D240" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B241">
         <v>3</v>
@@ -4321,12 +4325,12 @@
         <v>2018</v>
       </c>
       <c r="D241" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B242">
         <v>3</v>
@@ -4335,12 +4339,12 @@
         <v>2018</v>
       </c>
       <c r="D242" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B243">
         <v>3</v>
@@ -4349,12 +4353,12 @@
         <v>2018</v>
       </c>
       <c r="D243" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B244">
         <v>3</v>
@@ -4363,12 +4367,12 @@
         <v>2018</v>
       </c>
       <c r="D244" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B245">
         <v>3</v>
@@ -4377,12 +4381,12 @@
         <v>2018</v>
       </c>
       <c r="D245" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B246">
         <v>3</v>
@@ -4391,12 +4395,12 @@
         <v>2018</v>
       </c>
       <c r="D246" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B247">
         <v>3</v>
@@ -4405,12 +4409,12 @@
         <v>2018</v>
       </c>
       <c r="D247" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B248">
         <v>3</v>
@@ -4419,7 +4423,7 @@
         <v>2018</v>
       </c>
       <c r="D248" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
@@ -4433,7 +4437,7 @@
         <v>2018</v>
       </c>
       <c r="D249" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
@@ -4447,7 +4451,7 @@
         <v>2018</v>
       </c>
       <c r="D250" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
@@ -4461,12 +4465,12 @@
         <v>2018</v>
       </c>
       <c r="D251" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B252">
         <v>3</v>
@@ -4475,7 +4479,7 @@
         <v>2018</v>
       </c>
       <c r="D252" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
@@ -4489,12 +4493,12 @@
         <v>2018</v>
       </c>
       <c r="D253" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B254">
         <v>3</v>
@@ -4503,12 +4507,12 @@
         <v>2018</v>
       </c>
       <c r="D254" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B255">
         <v>3</v>
@@ -4517,12 +4521,12 @@
         <v>2018</v>
       </c>
       <c r="D255" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B256">
         <v>3</v>
@@ -4531,12 +4535,12 @@
         <v>2018</v>
       </c>
       <c r="D256" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -4545,7 +4549,7 @@
         <v>2018</v>
       </c>
       <c r="D257" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
@@ -4559,12 +4563,12 @@
         <v>2018</v>
       </c>
       <c r="D258" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B259">
         <v>3</v>
@@ -4573,12 +4577,12 @@
         <v>2018</v>
       </c>
       <c r="D259" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B260">
         <v>3</v>
@@ -4587,12 +4591,12 @@
         <v>2018</v>
       </c>
       <c r="D260" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B261">
         <v>3</v>
@@ -4601,12 +4605,12 @@
         <v>2018</v>
       </c>
       <c r="D261" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B262">
         <v>3</v>
@@ -4615,12 +4619,12 @@
         <v>2018</v>
       </c>
       <c r="D262" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="B263">
         <v>3</v>
@@ -4629,12 +4633,12 @@
         <v>2018</v>
       </c>
       <c r="D263" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="B264">
         <v>3</v>
@@ -4643,12 +4647,12 @@
         <v>2018</v>
       </c>
       <c r="D264" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B265">
         <v>3</v>
@@ -4657,12 +4661,12 @@
         <v>2018</v>
       </c>
       <c r="D265" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B266">
         <v>3</v>
@@ -4671,12 +4675,12 @@
         <v>2018</v>
       </c>
       <c r="D266" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B267">
         <v>3</v>
@@ -4685,12 +4689,12 @@
         <v>2018</v>
       </c>
       <c r="D267" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B268">
         <v>3</v>
@@ -4699,12 +4703,12 @@
         <v>2018</v>
       </c>
       <c r="D268" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B269">
         <v>3</v>
@@ -4713,12 +4717,12 @@
         <v>2018</v>
       </c>
       <c r="D269" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B270">
         <v>3</v>
@@ -4727,12 +4731,12 @@
         <v>2018</v>
       </c>
       <c r="D270" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B271">
         <v>3</v>
@@ -4741,12 +4745,12 @@
         <v>2018</v>
       </c>
       <c r="D271" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B272">
         <v>3</v>
@@ -4755,12 +4759,12 @@
         <v>2018</v>
       </c>
       <c r="D272" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B273">
         <v>3</v>
@@ -4769,12 +4773,12 @@
         <v>2018</v>
       </c>
       <c r="D273" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B274">
         <v>3</v>
@@ -4783,12 +4787,12 @@
         <v>2018</v>
       </c>
       <c r="D274" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B275">
         <v>3</v>
@@ -4797,12 +4801,12 @@
         <v>2018</v>
       </c>
       <c r="D275" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B276">
         <v>3</v>
@@ -4811,12 +4815,12 @@
         <v>2018</v>
       </c>
       <c r="D276" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B277">
         <v>3</v>
@@ -4825,12 +4829,12 @@
         <v>2018</v>
       </c>
       <c r="D277" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B278">
         <v>3</v>
@@ -4839,7 +4843,7 @@
         <v>2018</v>
       </c>
       <c r="D278" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.4">
@@ -4853,12 +4857,12 @@
         <v>2018</v>
       </c>
       <c r="D279" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B280">
         <v>3</v>
@@ -4867,7 +4871,7 @@
         <v>2018</v>
       </c>
       <c r="D280" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.4">
@@ -4881,12 +4885,12 @@
         <v>2018</v>
       </c>
       <c r="D281" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B282">
         <v>3</v>
@@ -4895,12 +4899,12 @@
         <v>2018</v>
       </c>
       <c r="D282" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B283">
         <v>3</v>
@@ -4909,12 +4913,12 @@
         <v>2018</v>
       </c>
       <c r="D283" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B284">
         <v>3</v>
@@ -4923,7 +4927,7 @@
         <v>2018</v>
       </c>
       <c r="D284" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.4">
@@ -4937,12 +4941,12 @@
         <v>2018</v>
       </c>
       <c r="D285" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B286">
         <v>3</v>
@@ -4951,12 +4955,12 @@
         <v>2018</v>
       </c>
       <c r="D286" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B287">
         <v>3</v>
@@ -4965,12 +4969,12 @@
         <v>2018</v>
       </c>
       <c r="D287" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B288">
         <v>3</v>
@@ -4979,12 +4983,12 @@
         <v>2018</v>
       </c>
       <c r="D288" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B289">
         <v>3</v>
@@ -4993,12 +4997,12 @@
         <v>2018</v>
       </c>
       <c r="D289" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B290">
         <v>3</v>
@@ -5007,12 +5011,12 @@
         <v>2018</v>
       </c>
       <c r="D290" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B291">
         <v>3</v>
@@ -5021,7 +5025,7 @@
         <v>2018</v>
       </c>
       <c r="D291" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.4">
@@ -5035,12 +5039,12 @@
         <v>2018</v>
       </c>
       <c r="D292" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B293">
         <v>3</v>
@@ -5049,26 +5053,26 @@
         <v>2018</v>
       </c>
       <c r="D293" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B294">
         <v>3</v>
       </c>
       <c r="C294">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D294" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B295">
         <v>3</v>
@@ -5077,12 +5081,12 @@
         <v>2017</v>
       </c>
       <c r="D295" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B296">
         <v>3</v>
@@ -5091,12 +5095,12 @@
         <v>2017</v>
       </c>
       <c r="D296" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B297">
         <v>3</v>
@@ -5105,12 +5109,12 @@
         <v>2017</v>
       </c>
       <c r="D297" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B298">
         <v>3</v>
@@ -5119,12 +5123,12 @@
         <v>2017</v>
       </c>
       <c r="D298" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B299">
         <v>3</v>
@@ -5133,7 +5137,7 @@
         <v>2017</v>
       </c>
       <c r="D299" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.4">
@@ -5147,12 +5151,12 @@
         <v>2017</v>
       </c>
       <c r="D300" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B301">
         <v>3</v>
@@ -5161,12 +5165,12 @@
         <v>2017</v>
       </c>
       <c r="D301" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B302">
         <v>3</v>
@@ -5175,12 +5179,12 @@
         <v>2017</v>
       </c>
       <c r="D302" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B303">
         <v>3</v>
@@ -5189,12 +5193,12 @@
         <v>2017</v>
       </c>
       <c r="D303" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B304">
         <v>3</v>
@@ -5203,12 +5207,12 @@
         <v>2017</v>
       </c>
       <c r="D304" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B305">
         <v>3</v>
@@ -5217,12 +5221,12 @@
         <v>2017</v>
       </c>
       <c r="D305" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B306">
         <v>3</v>
@@ -5231,12 +5235,12 @@
         <v>2017</v>
       </c>
       <c r="D306" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B307">
         <v>3</v>
@@ -5245,12 +5249,12 @@
         <v>2017</v>
       </c>
       <c r="D307" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B308">
         <v>3</v>
@@ -5259,12 +5263,12 @@
         <v>2017</v>
       </c>
       <c r="D308" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B309">
         <v>3</v>
@@ -5273,12 +5277,12 @@
         <v>2017</v>
       </c>
       <c r="D309" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B310">
         <v>3</v>
@@ -5287,12 +5291,12 @@
         <v>2017</v>
       </c>
       <c r="D310" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B311">
         <v>3</v>
@@ -5301,12 +5305,12 @@
         <v>2017</v>
       </c>
       <c r="D311" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B312">
         <v>3</v>
@@ -5315,12 +5319,12 @@
         <v>2017</v>
       </c>
       <c r="D312" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B313">
         <v>3</v>
@@ -5329,12 +5333,12 @@
         <v>2017</v>
       </c>
       <c r="D313" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B314">
         <v>3</v>
@@ -5343,12 +5347,12 @@
         <v>2017</v>
       </c>
       <c r="D314" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B315">
         <v>3</v>
@@ -5357,7 +5361,7 @@
         <v>2017</v>
       </c>
       <c r="D315" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.4">
@@ -5371,7 +5375,7 @@
         <v>2017</v>
       </c>
       <c r="D316" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.4">
@@ -5385,7 +5389,7 @@
         <v>2017</v>
       </c>
       <c r="D317" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.4">
@@ -5399,12 +5403,12 @@
         <v>2017</v>
       </c>
       <c r="D318" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B319">
         <v>3</v>
@@ -5413,7 +5417,7 @@
         <v>2017</v>
       </c>
       <c r="D319" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.4">
@@ -5427,12 +5431,12 @@
         <v>2017</v>
       </c>
       <c r="D320" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B321">
         <v>3</v>
@@ -5441,12 +5445,12 @@
         <v>2017</v>
       </c>
       <c r="D321" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B322">
         <v>3</v>
@@ -5455,12 +5459,12 @@
         <v>2017</v>
       </c>
       <c r="D322" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B323">
         <v>3</v>
@@ -5469,12 +5473,12 @@
         <v>2017</v>
       </c>
       <c r="D323" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B324">
         <v>3</v>
@@ -5483,7 +5487,7 @@
         <v>2017</v>
       </c>
       <c r="D324" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.4">
@@ -5497,12 +5501,12 @@
         <v>2017</v>
       </c>
       <c r="D325" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B326">
         <v>3</v>
@@ -5511,12 +5515,12 @@
         <v>2017</v>
       </c>
       <c r="D326" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B327">
         <v>3</v>
@@ -5525,12 +5529,12 @@
         <v>2017</v>
       </c>
       <c r="D327" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B328">
         <v>3</v>
@@ -5539,12 +5543,12 @@
         <v>2017</v>
       </c>
       <c r="D328" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B329">
         <v>3</v>
@@ -5553,12 +5557,12 @@
         <v>2017</v>
       </c>
       <c r="D329" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="B330">
         <v>3</v>
@@ -5567,12 +5571,12 @@
         <v>2017</v>
       </c>
       <c r="D330" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="B331">
         <v>3</v>
@@ -5581,12 +5585,12 @@
         <v>2017</v>
       </c>
       <c r="D331" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B332">
         <v>3</v>
@@ -5595,12 +5599,12 @@
         <v>2017</v>
       </c>
       <c r="D332" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B333">
         <v>3</v>
@@ -5609,12 +5613,12 @@
         <v>2017</v>
       </c>
       <c r="D333" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B334">
         <v>3</v>
@@ -5623,12 +5627,12 @@
         <v>2017</v>
       </c>
       <c r="D334" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B335">
         <v>3</v>
@@ -5637,12 +5641,12 @@
         <v>2017</v>
       </c>
       <c r="D335" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B336">
         <v>3</v>
@@ -5651,12 +5655,12 @@
         <v>2017</v>
       </c>
       <c r="D336" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B337">
         <v>3</v>
@@ -5665,12 +5669,12 @@
         <v>2017</v>
       </c>
       <c r="D337" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B338">
         <v>3</v>
@@ -5679,12 +5683,12 @@
         <v>2017</v>
       </c>
       <c r="D338" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B339">
         <v>3</v>
@@ -5693,7 +5697,7 @@
         <v>2017</v>
       </c>
       <c r="D339" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.4">
@@ -5707,12 +5711,12 @@
         <v>2017</v>
       </c>
       <c r="D340" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B341">
         <v>3</v>
@@ -5721,7 +5725,7 @@
         <v>2017</v>
       </c>
       <c r="D341" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.4">
@@ -5735,12 +5739,12 @@
         <v>2017</v>
       </c>
       <c r="D342" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B343">
         <v>3</v>
@@ -5749,12 +5753,12 @@
         <v>2017</v>
       </c>
       <c r="D343" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B344">
         <v>3</v>
@@ -5763,12 +5767,12 @@
         <v>2017</v>
       </c>
       <c r="D344" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B345">
         <v>3</v>
@@ -5777,12 +5781,12 @@
         <v>2017</v>
       </c>
       <c r="D345" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A346" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B346">
         <v>3</v>
@@ -5791,12 +5795,12 @@
         <v>2017</v>
       </c>
       <c r="D346" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B347">
         <v>3</v>
@@ -5805,12 +5809,12 @@
         <v>2017</v>
       </c>
       <c r="D347" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B348">
         <v>3</v>
@@ -5819,12 +5823,12 @@
         <v>2017</v>
       </c>
       <c r="D348" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B349">
         <v>3</v>
@@ -5833,12 +5837,12 @@
         <v>2017</v>
       </c>
       <c r="D349" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B350">
         <v>3</v>
@@ -5847,7 +5851,7 @@
         <v>2017</v>
       </c>
       <c r="D350" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.4">
@@ -5861,26 +5865,26 @@
         <v>2017</v>
       </c>
       <c r="D351" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B352">
         <v>3</v>
       </c>
       <c r="C352">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D352" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B353">
         <v>3</v>
@@ -5889,12 +5893,12 @@
         <v>2016</v>
       </c>
       <c r="D353" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B354">
         <v>3</v>
@@ -5903,12 +5907,12 @@
         <v>2016</v>
       </c>
       <c r="D354" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B355">
         <v>3</v>
@@ -5917,12 +5921,12 @@
         <v>2016</v>
       </c>
       <c r="D355" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B356">
         <v>3</v>
@@ -5931,12 +5935,12 @@
         <v>2016</v>
       </c>
       <c r="D356" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B357">
         <v>3</v>
@@ -5945,7 +5949,7 @@
         <v>2016</v>
       </c>
       <c r="D357" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.4">
@@ -5959,12 +5963,12 @@
         <v>2016</v>
       </c>
       <c r="D358" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B359">
         <v>3</v>
@@ -5973,12 +5977,12 @@
         <v>2016</v>
       </c>
       <c r="D359" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B360">
         <v>3</v>
@@ -5987,12 +5991,12 @@
         <v>2016</v>
       </c>
       <c r="D360" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B361">
         <v>3</v>
@@ -6001,12 +6005,12 @@
         <v>2016</v>
       </c>
       <c r="D361" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B362">
         <v>3</v>
@@ -6015,12 +6019,12 @@
         <v>2016</v>
       </c>
       <c r="D362" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B363">
         <v>3</v>
@@ -6029,12 +6033,12 @@
         <v>2016</v>
       </c>
       <c r="D363" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A364" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B364">
         <v>3</v>
@@ -6043,12 +6047,12 @@
         <v>2016</v>
       </c>
       <c r="D364" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B365">
         <v>3</v>
@@ -6057,12 +6061,12 @@
         <v>2016</v>
       </c>
       <c r="D365" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B366">
         <v>3</v>
@@ -6071,12 +6075,12 @@
         <v>2016</v>
       </c>
       <c r="D366" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="B367">
         <v>3</v>
@@ -6085,12 +6089,12 @@
         <v>2016</v>
       </c>
       <c r="D367" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="B368">
         <v>3</v>
@@ -6099,12 +6103,12 @@
         <v>2016</v>
       </c>
       <c r="D368" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B369">
         <v>3</v>
@@ -6113,12 +6117,12 @@
         <v>2016</v>
       </c>
       <c r="D369" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B370">
         <v>3</v>
@@ -6127,12 +6131,12 @@
         <v>2016</v>
       </c>
       <c r="D370" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B371">
         <v>3</v>
@@ -6141,12 +6145,12 @@
         <v>2016</v>
       </c>
       <c r="D371" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B372">
         <v>3</v>
@@ -6155,12 +6159,12 @@
         <v>2016</v>
       </c>
       <c r="D372" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B373">
         <v>3</v>
@@ -6169,12 +6173,12 @@
         <v>2016</v>
       </c>
       <c r="D373" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A374" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="B374">
         <v>3</v>
@@ -6183,12 +6187,12 @@
         <v>2016</v>
       </c>
       <c r="D374" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A375" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="B375">
         <v>3</v>
@@ -6197,12 +6201,12 @@
         <v>2016</v>
       </c>
       <c r="D375" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A376" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B376">
         <v>3</v>
@@ -6211,12 +6215,12 @@
         <v>2016</v>
       </c>
       <c r="D376" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A377" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B377">
         <v>3</v>
@@ -6225,12 +6229,12 @@
         <v>2016</v>
       </c>
       <c r="D377" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A378" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B378">
         <v>3</v>
@@ -6239,12 +6243,12 @@
         <v>2016</v>
       </c>
       <c r="D378" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A379" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B379">
         <v>3</v>
@@ -6253,12 +6257,12 @@
         <v>2016</v>
       </c>
       <c r="D379" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A380" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B380">
         <v>3</v>
@@ -6267,12 +6271,12 @@
         <v>2016</v>
       </c>
       <c r="D380" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A381" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B381">
         <v>3</v>
@@ -6281,12 +6285,12 @@
         <v>2016</v>
       </c>
       <c r="D381" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A382" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B382">
         <v>3</v>
@@ -6295,12 +6299,12 @@
         <v>2016</v>
       </c>
       <c r="D382" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B383">
         <v>3</v>
@@ -6309,7 +6313,7 @@
         <v>2016</v>
       </c>
       <c r="D383" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.4">
@@ -6323,12 +6327,12 @@
         <v>2016</v>
       </c>
       <c r="D384" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A385" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B385">
         <v>3</v>
@@ -6337,12 +6341,12 @@
         <v>2016</v>
       </c>
       <c r="D385" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="B386">
         <v>3</v>
@@ -6351,12 +6355,12 @@
         <v>2016</v>
       </c>
       <c r="D386" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="B387">
         <v>3</v>
@@ -6365,6 +6369,20 @@
         <v>2016</v>
       </c>
       <c r="D387" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A388" t="s">
+        <v>62</v>
+      </c>
+      <c r="B388">
+        <v>3</v>
+      </c>
+      <c r="C388">
+        <v>2016</v>
+      </c>
+      <c r="D388" t="s">
         <v>116</v>
       </c>
     </row>

--- a/edited/elective_list/ppe.xlsx
+++ b/edited/elective_list/ppe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GIST_Credit_Analysis_Program\edited\elective_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0374AF-9FBD-421C-900C-FEB9C9FC1C9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0862E325-6C3D-4078-8088-7EC6A727852A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5328" yWindow="3396" windowWidth="11460" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="174">
   <si>
     <t>교과목</t>
   </si>
@@ -512,6 +512,70 @@
   </si>
   <si>
     <t>비판적 디자인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2753</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술벤처창업론</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2794</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대사회사상의 흐름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2795</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문명으로 보는 21세기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2796</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2797</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드로 보는 한국의 역동성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈의 사회학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS3736</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통일독일과 남북통일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS3838</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학기술정책의 이해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS4837</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학기술과 사회 연구 세미나</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -946,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D388"/>
+  <dimension ref="A1:D396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="D396" sqref="D396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -976,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D2" t="s">
         <v>66</v>
@@ -990,7 +1054,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D3" t="s">
         <v>67</v>
@@ -1004,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D4" t="s">
         <v>68</v>
@@ -1018,7 +1082,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D5" t="s">
         <v>69</v>
@@ -1032,7 +1096,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D6" t="s">
         <v>70</v>
@@ -1046,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D7" t="s">
         <v>71</v>
@@ -1060,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D8" t="s">
         <v>72</v>
@@ -1074,7 +1138,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D9" t="s">
         <v>73</v>
@@ -1088,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D10" t="s">
         <v>74</v>
@@ -1102,7 +1166,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
@@ -1110,2149 +1174,2149 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D48" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
       <c r="C51">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D52" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
       <c r="C56">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D56" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D57" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
       <c r="C59">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D60" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D61" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
       <c r="C62">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D62" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
       <c r="C63">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D63" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
       <c r="C64">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D64" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
       <c r="C65">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D65" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
       <c r="C66">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D66" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D67" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B68">
         <v>3</v>
       </c>
       <c r="C68">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D68" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
       <c r="C69">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D70" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B71">
         <v>3</v>
       </c>
       <c r="C71">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="B72">
         <v>3</v>
       </c>
       <c r="C72">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D72" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D73" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
       <c r="C74">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D74" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
       <c r="C75">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D75" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D76" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
       <c r="C77">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D77" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
       <c r="C78">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D78" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D79" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
       <c r="C80">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D80" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B81">
         <v>3</v>
       </c>
       <c r="C81">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D81" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
       <c r="C82">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D82" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B83">
         <v>3</v>
       </c>
       <c r="C83">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D83" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
       <c r="C84">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D84" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
       <c r="C85">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D85" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B86">
         <v>3</v>
       </c>
       <c r="C86">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D86" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B87">
         <v>3</v>
       </c>
       <c r="C87">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D87" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B88">
         <v>3</v>
       </c>
       <c r="C88">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D88" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B89">
         <v>3</v>
       </c>
       <c r="C89">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D89" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B90">
         <v>3</v>
       </c>
       <c r="C90">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D90" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B91">
         <v>3</v>
       </c>
       <c r="C91">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D91" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B92">
         <v>3</v>
       </c>
       <c r="C92">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D92" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
       <c r="C93">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D93" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B94">
         <v>3</v>
       </c>
       <c r="C94">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D94" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B95">
         <v>3</v>
       </c>
       <c r="C95">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D95" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B96">
         <v>3</v>
       </c>
       <c r="C96">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D96" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B97">
         <v>3</v>
       </c>
       <c r="C97">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D97" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B98">
         <v>3</v>
       </c>
       <c r="C98">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D98" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B99">
         <v>3</v>
       </c>
       <c r="C99">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D99" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B100">
         <v>3</v>
       </c>
       <c r="C100">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D100" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B101">
         <v>3</v>
       </c>
       <c r="C101">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D101" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B102">
         <v>3</v>
       </c>
       <c r="C102">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D102" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B103">
         <v>3</v>
       </c>
       <c r="C103">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D103" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B104">
         <v>3</v>
       </c>
       <c r="C104">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D104" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B105">
         <v>3</v>
       </c>
       <c r="C105">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D105" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B106">
         <v>3</v>
       </c>
       <c r="C106">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D106" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B107">
         <v>3</v>
       </c>
       <c r="C107">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D107" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B108">
         <v>3</v>
       </c>
       <c r="C108">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D108" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B109">
         <v>3</v>
       </c>
       <c r="C109">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D109" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B110">
         <v>3</v>
       </c>
       <c r="C110">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D110" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B111">
         <v>3</v>
       </c>
       <c r="C111">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D111" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B112">
         <v>3</v>
       </c>
       <c r="C112">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D112" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B113">
         <v>3</v>
       </c>
       <c r="C113">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D113" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B114">
         <v>3</v>
       </c>
       <c r="C114">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D114" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B115">
         <v>3</v>
       </c>
       <c r="C115">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D115" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
       <c r="C116">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D116" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B117">
         <v>3</v>
       </c>
       <c r="C117">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D117" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B118">
         <v>3</v>
       </c>
       <c r="C118">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D118" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B119">
         <v>3</v>
       </c>
       <c r="C119">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D119" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B120">
         <v>3</v>
       </c>
       <c r="C120">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D120" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B121">
         <v>3</v>
       </c>
       <c r="C121">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D121" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B122">
         <v>3</v>
       </c>
       <c r="C122">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D122" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B123">
         <v>3</v>
       </c>
       <c r="C123">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D123" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B124">
         <v>3</v>
       </c>
       <c r="C124">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D124" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B125">
         <v>3</v>
       </c>
       <c r="C125">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D125" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B126">
         <v>3</v>
       </c>
       <c r="C126">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D126" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B127">
         <v>3</v>
       </c>
       <c r="C127">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D127" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B128">
         <v>3</v>
       </c>
       <c r="C128">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D128" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B129">
         <v>3</v>
       </c>
       <c r="C129">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D129" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B130">
         <v>3</v>
       </c>
       <c r="C130">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D130" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B131">
         <v>3</v>
       </c>
       <c r="C131">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D131" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B132">
         <v>3</v>
       </c>
       <c r="C132">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D132" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B133">
         <v>3</v>
       </c>
       <c r="C133">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D133" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C134">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D134" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B135">
         <v>3</v>
       </c>
       <c r="C135">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D135" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B136">
         <v>3</v>
       </c>
       <c r="C136">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D136" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B137">
         <v>3</v>
       </c>
       <c r="C137">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D137" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B138">
         <v>3</v>
       </c>
       <c r="C138">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D138" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B139">
         <v>3</v>
       </c>
       <c r="C139">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D139" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B140">
         <v>3</v>
       </c>
       <c r="C140">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D140" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B141">
         <v>3</v>
       </c>
       <c r="C141">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D141" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B142">
         <v>3</v>
       </c>
       <c r="C142">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D142" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B143">
         <v>3</v>
       </c>
       <c r="C143">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D143" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B144">
         <v>3</v>
       </c>
       <c r="C144">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D144" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B145">
         <v>3</v>
       </c>
       <c r="C145">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D145" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B146">
         <v>3</v>
       </c>
       <c r="C146">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D146" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B147">
         <v>3</v>
       </c>
       <c r="C147">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D147" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B148">
         <v>3</v>
       </c>
       <c r="C148">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D148" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B149">
         <v>3</v>
       </c>
       <c r="C149">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D149" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B150">
         <v>3</v>
       </c>
       <c r="C150">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D150" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B151">
         <v>3</v>
       </c>
       <c r="C151">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D151" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B152">
         <v>3</v>
       </c>
       <c r="C152">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D152" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B153">
         <v>3</v>
       </c>
       <c r="C153">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D153" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B154">
         <v>3</v>
       </c>
       <c r="C154">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D154" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B155">
         <v>3</v>
       </c>
       <c r="C155">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D155" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B156">
         <v>3</v>
       </c>
       <c r="C156">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D156" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B157">
         <v>3</v>
       </c>
       <c r="C157">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D157" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B158">
         <v>3</v>
       </c>
       <c r="C158">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D158" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B159">
         <v>3</v>
       </c>
       <c r="C159">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D159" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B160">
         <v>3</v>
       </c>
       <c r="C160">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D160" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B161">
         <v>3</v>
       </c>
       <c r="C161">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D161" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="B162">
         <v>3</v>
       </c>
       <c r="C162">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D162" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B163">
         <v>3</v>
       </c>
       <c r="C163">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D163" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B164">
         <v>3</v>
       </c>
       <c r="C164">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D164" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B165">
         <v>3</v>
@@ -3261,12 +3325,12 @@
         <v>2019</v>
       </c>
       <c r="D165" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B166">
         <v>3</v>
@@ -3275,12 +3339,12 @@
         <v>2019</v>
       </c>
       <c r="D166" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B167">
         <v>3</v>
@@ -3289,12 +3353,12 @@
         <v>2019</v>
       </c>
       <c r="D167" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B168">
         <v>3</v>
@@ -3303,12 +3367,12 @@
         <v>2019</v>
       </c>
       <c r="D168" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B169">
         <v>3</v>
@@ -3317,12 +3381,12 @@
         <v>2019</v>
       </c>
       <c r="D169" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B170">
         <v>3</v>
@@ -3331,12 +3395,12 @@
         <v>2019</v>
       </c>
       <c r="D170" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B171">
         <v>3</v>
@@ -3345,12 +3409,12 @@
         <v>2019</v>
       </c>
       <c r="D171" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B172">
         <v>3</v>
@@ -3359,12 +3423,12 @@
         <v>2019</v>
       </c>
       <c r="D172" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B173">
         <v>3</v>
@@ -3373,12 +3437,12 @@
         <v>2019</v>
       </c>
       <c r="D173" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B174">
         <v>3</v>
@@ -3387,12 +3451,12 @@
         <v>2019</v>
       </c>
       <c r="D174" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B175">
         <v>3</v>
@@ -3401,12 +3465,12 @@
         <v>2019</v>
       </c>
       <c r="D175" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B176">
         <v>3</v>
@@ -3415,12 +3479,12 @@
         <v>2019</v>
       </c>
       <c r="D176" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B177">
         <v>3</v>
@@ -3429,12 +3493,12 @@
         <v>2019</v>
       </c>
       <c r="D177" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B178">
         <v>3</v>
@@ -3443,12 +3507,12 @@
         <v>2019</v>
       </c>
       <c r="D178" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B179">
         <v>3</v>
@@ -3457,12 +3521,12 @@
         <v>2019</v>
       </c>
       <c r="D179" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B180">
         <v>3</v>
@@ -3471,12 +3535,12 @@
         <v>2019</v>
       </c>
       <c r="D180" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B181">
         <v>3</v>
@@ -3485,12 +3549,12 @@
         <v>2019</v>
       </c>
       <c r="D181" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B182">
         <v>3</v>
@@ -3499,12 +3563,12 @@
         <v>2019</v>
       </c>
       <c r="D182" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -3513,12 +3577,12 @@
         <v>2019</v>
       </c>
       <c r="D183" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B184">
         <v>3</v>
@@ -3527,12 +3591,12 @@
         <v>2019</v>
       </c>
       <c r="D184" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B185">
         <v>3</v>
@@ -3541,12 +3605,12 @@
         <v>2019</v>
       </c>
       <c r="D185" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B186">
         <v>3</v>
@@ -3555,12 +3619,12 @@
         <v>2019</v>
       </c>
       <c r="D186" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B187">
         <v>3</v>
@@ -3569,12 +3633,12 @@
         <v>2019</v>
       </c>
       <c r="D187" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B188">
         <v>3</v>
@@ -3583,12 +3647,12 @@
         <v>2019</v>
       </c>
       <c r="D188" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B189">
         <v>3</v>
@@ -3597,12 +3661,12 @@
         <v>2019</v>
       </c>
       <c r="D189" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B190">
         <v>3</v>
@@ -3611,12 +3675,12 @@
         <v>2019</v>
       </c>
       <c r="D190" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B191">
         <v>3</v>
@@ -3625,12 +3689,12 @@
         <v>2019</v>
       </c>
       <c r="D191" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -3639,12 +3703,12 @@
         <v>2019</v>
       </c>
       <c r="D192" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -3653,12 +3717,12 @@
         <v>2019</v>
       </c>
       <c r="D193" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B194">
         <v>3</v>
@@ -3667,12 +3731,12 @@
         <v>2019</v>
       </c>
       <c r="D194" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B195">
         <v>3</v>
@@ -3681,12 +3745,12 @@
         <v>2019</v>
       </c>
       <c r="D195" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B196">
         <v>3</v>
@@ -3695,12 +3759,12 @@
         <v>2019</v>
       </c>
       <c r="D196" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B197">
         <v>3</v>
@@ -3709,12 +3773,12 @@
         <v>2019</v>
       </c>
       <c r="D197" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B198">
         <v>3</v>
@@ -3723,12 +3787,12 @@
         <v>2019</v>
       </c>
       <c r="D198" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B199">
         <v>3</v>
@@ -3737,12 +3801,12 @@
         <v>2019</v>
       </c>
       <c r="D199" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B200">
         <v>3</v>
@@ -3751,12 +3815,12 @@
         <v>2019</v>
       </c>
       <c r="D200" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B201">
         <v>3</v>
@@ -3765,12 +3829,12 @@
         <v>2019</v>
       </c>
       <c r="D201" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B202">
         <v>3</v>
@@ -3779,12 +3843,12 @@
         <v>2019</v>
       </c>
       <c r="D202" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B203">
         <v>3</v>
@@ -3793,12 +3857,12 @@
         <v>2019</v>
       </c>
       <c r="D203" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B204">
         <v>3</v>
@@ -3807,12 +3871,12 @@
         <v>2019</v>
       </c>
       <c r="D204" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B205">
         <v>3</v>
@@ -3821,12 +3885,12 @@
         <v>2019</v>
       </c>
       <c r="D205" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B206">
         <v>3</v>
@@ -3835,26 +3899,26 @@
         <v>2019</v>
       </c>
       <c r="D206" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C207">
         <v>2019</v>
       </c>
       <c r="D207" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B208">
         <v>3</v>
@@ -3863,12 +3927,12 @@
         <v>2019</v>
       </c>
       <c r="D208" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B209">
         <v>3</v>
@@ -3877,12 +3941,12 @@
         <v>2019</v>
       </c>
       <c r="D209" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B210">
         <v>3</v>
@@ -3891,12 +3955,12 @@
         <v>2019</v>
       </c>
       <c r="D210" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B211">
         <v>3</v>
@@ -3905,12 +3969,12 @@
         <v>2019</v>
       </c>
       <c r="D211" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B212">
         <v>3</v>
@@ -3919,12 +3983,12 @@
         <v>2019</v>
       </c>
       <c r="D212" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B213">
         <v>3</v>
@@ -3933,12 +3997,12 @@
         <v>2019</v>
       </c>
       <c r="D213" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B214">
         <v>3</v>
@@ -3947,12 +4011,12 @@
         <v>2019</v>
       </c>
       <c r="D214" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B215">
         <v>3</v>
@@ -3961,12 +4025,12 @@
         <v>2019</v>
       </c>
       <c r="D215" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B216">
         <v>3</v>
@@ -3975,12 +4039,12 @@
         <v>2019</v>
       </c>
       <c r="D216" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B217">
         <v>3</v>
@@ -3989,12 +4053,12 @@
         <v>2019</v>
       </c>
       <c r="D217" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B218">
         <v>3</v>
@@ -4003,26 +4067,26 @@
         <v>2019</v>
       </c>
       <c r="D218" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C219">
         <v>2019</v>
       </c>
       <c r="D219" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B220">
         <v>3</v>
@@ -4031,12 +4095,12 @@
         <v>2019</v>
       </c>
       <c r="D220" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B221">
         <v>3</v>
@@ -4045,12 +4109,12 @@
         <v>2019</v>
       </c>
       <c r="D221" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B222">
         <v>3</v>
@@ -4059,12 +4123,12 @@
         <v>2019</v>
       </c>
       <c r="D222" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B223">
         <v>3</v>
@@ -4073,12 +4137,12 @@
         <v>2019</v>
       </c>
       <c r="D223" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B224">
         <v>3</v>
@@ -4087,12 +4151,12 @@
         <v>2019</v>
       </c>
       <c r="D224" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B225">
         <v>3</v>
@@ -4101,2289 +4165,2401 @@
         <v>2019</v>
       </c>
       <c r="D225" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B226">
         <v>3</v>
       </c>
       <c r="C226">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D226" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B227">
         <v>3</v>
       </c>
       <c r="C227">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D227" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B228">
         <v>3</v>
       </c>
       <c r="C228">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D228" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B229">
         <v>3</v>
       </c>
       <c r="C229">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D229" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B230">
         <v>3</v>
       </c>
       <c r="C230">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D230" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B231">
         <v>3</v>
       </c>
       <c r="C231">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D231" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B232">
         <v>3</v>
       </c>
       <c r="C232">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D232" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B233">
         <v>3</v>
       </c>
       <c r="C233">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D233" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B234">
         <v>3</v>
       </c>
       <c r="C234">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D234" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="B235">
         <v>3</v>
       </c>
       <c r="C235">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D235" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B236">
         <v>3</v>
       </c>
       <c r="C236">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D236" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B237">
         <v>3</v>
       </c>
       <c r="C237">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D237" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B238">
         <v>3</v>
       </c>
       <c r="C238">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D238" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B239">
         <v>3</v>
       </c>
       <c r="C239">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D239" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B240">
         <v>3</v>
       </c>
       <c r="C240">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D240" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B241">
         <v>3</v>
       </c>
       <c r="C241">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D241" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B242">
         <v>3</v>
       </c>
       <c r="C242">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D242" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B243">
         <v>3</v>
       </c>
       <c r="C243">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D243" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B244">
         <v>3</v>
       </c>
       <c r="C244">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D244" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B245">
         <v>3</v>
       </c>
       <c r="C245">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D245" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B246">
         <v>3</v>
       </c>
       <c r="C246">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D246" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B247">
         <v>3</v>
       </c>
       <c r="C247">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D247" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B248">
         <v>3</v>
       </c>
       <c r="C248">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D248" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B249">
         <v>3</v>
       </c>
       <c r="C249">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D249" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B250">
         <v>3</v>
       </c>
       <c r="C250">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D250" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B251">
         <v>3</v>
       </c>
       <c r="C251">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D251" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B252">
         <v>3</v>
       </c>
       <c r="C252">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D252" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B253">
         <v>3</v>
       </c>
       <c r="C253">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D253" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B254">
         <v>3</v>
       </c>
       <c r="C254">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D254" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B255">
         <v>3</v>
       </c>
       <c r="C255">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D255" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B256">
         <v>3</v>
       </c>
       <c r="C256">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D256" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B257">
         <v>3</v>
       </c>
       <c r="C257">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D257" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B258">
         <v>3</v>
       </c>
       <c r="C258">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D258" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B259">
         <v>3</v>
       </c>
       <c r="C259">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D259" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B260">
         <v>3</v>
       </c>
       <c r="C260">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D260" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B261">
         <v>3</v>
       </c>
       <c r="C261">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D261" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B262">
         <v>3</v>
       </c>
       <c r="C262">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D262" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B263">
         <v>3</v>
       </c>
       <c r="C263">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D263" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="B264">
         <v>3</v>
       </c>
       <c r="C264">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D264" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B265">
         <v>3</v>
       </c>
       <c r="C265">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D265" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B266">
         <v>3</v>
       </c>
       <c r="C266">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D266" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B267">
         <v>3</v>
       </c>
       <c r="C267">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D267" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B268">
         <v>3</v>
       </c>
       <c r="C268">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D268" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B269">
         <v>3</v>
       </c>
       <c r="C269">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D269" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B270">
         <v>3</v>
       </c>
       <c r="C270">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D270" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B271">
         <v>3</v>
       </c>
       <c r="C271">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D271" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B272">
         <v>3</v>
       </c>
       <c r="C272">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D272" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B273">
         <v>3</v>
       </c>
       <c r="C273">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D273" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B274">
         <v>3</v>
       </c>
       <c r="C274">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D274" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B275">
         <v>3</v>
       </c>
       <c r="C275">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D275" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B276">
         <v>3</v>
       </c>
       <c r="C276">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D276" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B277">
         <v>3</v>
       </c>
       <c r="C277">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D277" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B278">
         <v>3</v>
       </c>
       <c r="C278">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D278" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B279">
         <v>3</v>
       </c>
       <c r="C279">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D279" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B280">
         <v>3</v>
       </c>
       <c r="C280">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D280" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B281">
         <v>3</v>
       </c>
       <c r="C281">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D281" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B282">
         <v>3</v>
       </c>
       <c r="C282">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D282" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B283">
         <v>3</v>
       </c>
       <c r="C283">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D283" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B284">
         <v>3</v>
       </c>
       <c r="C284">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D284" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B285">
         <v>3</v>
       </c>
       <c r="C285">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D285" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B286">
         <v>3</v>
       </c>
       <c r="C286">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D286" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B287">
         <v>3</v>
       </c>
       <c r="C287">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D287" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B288">
         <v>3</v>
       </c>
       <c r="C288">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D288" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B289">
         <v>3</v>
       </c>
       <c r="C289">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D289" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B290">
         <v>3</v>
       </c>
       <c r="C290">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D290" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B291">
         <v>3</v>
       </c>
       <c r="C291">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D291" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B292">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C292">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D292" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B293">
         <v>3</v>
       </c>
       <c r="C293">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D293" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B294">
         <v>3</v>
       </c>
       <c r="C294">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D294" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B295">
         <v>3</v>
       </c>
       <c r="C295">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D295" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B296">
         <v>3</v>
       </c>
       <c r="C296">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D296" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B297">
         <v>3</v>
       </c>
       <c r="C297">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D297" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B298">
         <v>3</v>
       </c>
       <c r="C298">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D298" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B299">
         <v>3</v>
       </c>
       <c r="C299">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D299" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B300">
         <v>3</v>
       </c>
       <c r="C300">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D300" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B301">
         <v>3</v>
       </c>
       <c r="C301">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D301" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B302">
         <v>3</v>
       </c>
       <c r="C302">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D302" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B303">
         <v>3</v>
       </c>
       <c r="C303">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D303" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B304">
         <v>3</v>
       </c>
       <c r="C304">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D304" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B305">
         <v>3</v>
       </c>
       <c r="C305">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D305" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B306">
         <v>3</v>
       </c>
       <c r="C306">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D306" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B307">
         <v>3</v>
       </c>
       <c r="C307">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D307" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B308">
         <v>3</v>
       </c>
       <c r="C308">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D308" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B309">
         <v>3</v>
       </c>
       <c r="C309">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D309" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B310">
         <v>3</v>
       </c>
       <c r="C310">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D310" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B311">
         <v>3</v>
       </c>
       <c r="C311">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D311" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B312">
         <v>3</v>
       </c>
       <c r="C312">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D312" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B313">
         <v>3</v>
       </c>
       <c r="C313">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D313" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B314">
         <v>3</v>
       </c>
       <c r="C314">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D314" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B315">
         <v>3</v>
       </c>
       <c r="C315">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D315" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B316">
         <v>3</v>
       </c>
       <c r="C316">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D316" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B317">
         <v>3</v>
       </c>
       <c r="C317">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D317" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B318">
         <v>3</v>
       </c>
       <c r="C318">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D318" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B319">
         <v>3</v>
       </c>
       <c r="C319">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D319" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B320">
         <v>3</v>
       </c>
       <c r="C320">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D320" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B321">
         <v>3</v>
       </c>
       <c r="C321">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D321" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B322">
         <v>3</v>
       </c>
       <c r="C322">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D322" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B323">
         <v>3</v>
       </c>
       <c r="C323">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D323" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B324">
         <v>3</v>
       </c>
       <c r="C324">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D324" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B325">
         <v>3</v>
       </c>
       <c r="C325">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D325" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B326">
         <v>3</v>
       </c>
       <c r="C326">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D326" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B327">
         <v>3</v>
       </c>
       <c r="C327">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D327" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B328">
         <v>3</v>
       </c>
       <c r="C328">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D328" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B329">
         <v>3</v>
       </c>
       <c r="C329">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D329" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B330">
         <v>3</v>
       </c>
       <c r="C330">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D330" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="B331">
         <v>3</v>
       </c>
       <c r="C331">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D331" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B332">
         <v>3</v>
       </c>
       <c r="C332">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D332" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B333">
         <v>3</v>
       </c>
       <c r="C333">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D333" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B334">
         <v>3</v>
       </c>
       <c r="C334">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D334" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B335">
         <v>3</v>
       </c>
       <c r="C335">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D335" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B336">
         <v>3</v>
       </c>
       <c r="C336">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D336" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B337">
         <v>3</v>
       </c>
       <c r="C337">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D337" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B338">
         <v>3</v>
       </c>
       <c r="C338">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D338" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B339">
         <v>3</v>
       </c>
       <c r="C339">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D339" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B340">
         <v>3</v>
       </c>
       <c r="C340">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D340" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B341">
         <v>3</v>
       </c>
       <c r="C341">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D341" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B342">
         <v>3</v>
       </c>
       <c r="C342">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D342" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B343">
         <v>3</v>
       </c>
       <c r="C343">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D343" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B344">
         <v>3</v>
       </c>
       <c r="C344">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D344" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B345">
         <v>3</v>
       </c>
       <c r="C345">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D345" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A346" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B346">
         <v>3</v>
       </c>
       <c r="C346">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D346" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="B347">
         <v>3</v>
       </c>
       <c r="C347">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D347" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B348">
         <v>3</v>
       </c>
       <c r="C348">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D348" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B349">
         <v>3</v>
       </c>
       <c r="C349">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D349" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B350">
         <v>3</v>
       </c>
       <c r="C350">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D350" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B351">
         <v>3</v>
       </c>
       <c r="C351">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D351" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B352">
         <v>3</v>
       </c>
       <c r="C352">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D352" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B353">
         <v>3</v>
       </c>
       <c r="C353">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D353" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B354">
         <v>3</v>
       </c>
       <c r="C354">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D354" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B355">
         <v>3</v>
       </c>
       <c r="C355">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D355" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B356">
         <v>3</v>
       </c>
       <c r="C356">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D356" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B357">
         <v>3</v>
       </c>
       <c r="C357">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D357" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B358">
         <v>3</v>
       </c>
       <c r="C358">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D358" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B359">
         <v>3</v>
       </c>
       <c r="C359">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D359" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="B360">
         <v>3</v>
       </c>
       <c r="C360">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D360" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="B361">
         <v>3</v>
       </c>
       <c r="C361">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D361" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="B362">
         <v>3</v>
       </c>
       <c r="C362">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D362" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="B363">
         <v>3</v>
       </c>
       <c r="C363">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D363" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A364" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B364">
         <v>3</v>
       </c>
       <c r="C364">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D364" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B365">
         <v>3</v>
       </c>
       <c r="C365">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D365" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B366">
         <v>3</v>
       </c>
       <c r="C366">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D366" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B367">
         <v>3</v>
       </c>
       <c r="C367">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D367" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B368">
         <v>3</v>
       </c>
       <c r="C368">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D368" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="B369">
         <v>3</v>
       </c>
       <c r="C369">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D369" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B370">
         <v>3</v>
       </c>
       <c r="C370">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D370" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B371">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C371">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D371" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B372">
         <v>3</v>
       </c>
       <c r="C372">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D372" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B373">
         <v>3</v>
       </c>
       <c r="C373">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D373" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A374" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B374">
         <v>3</v>
       </c>
       <c r="C374">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D374" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A375" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="B375">
         <v>3</v>
       </c>
       <c r="C375">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D375" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A376" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B376">
         <v>3</v>
       </c>
       <c r="C376">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D376" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A377" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B377">
         <v>3</v>
       </c>
       <c r="C377">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D377" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A378" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="B378">
         <v>3</v>
       </c>
       <c r="C378">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D378" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A379" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="B379">
         <v>3</v>
       </c>
       <c r="C379">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D379" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A380" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B380">
         <v>3</v>
       </c>
       <c r="C380">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D380" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A381" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B381">
         <v>3</v>
       </c>
       <c r="C381">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D381" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A382" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B382">
         <v>3</v>
       </c>
       <c r="C382">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D382" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B383">
         <v>3</v>
       </c>
       <c r="C383">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D383" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A384" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B384">
         <v>3</v>
       </c>
       <c r="C384">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D384" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A385" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B385">
         <v>3</v>
       </c>
       <c r="C385">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D385" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B386">
         <v>3</v>
       </c>
       <c r="C386">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D386" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B387">
         <v>3</v>
       </c>
       <c r="C387">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D387" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A388" t="s">
+        <v>152</v>
+      </c>
+      <c r="B388">
+        <v>3</v>
+      </c>
+      <c r="C388">
+        <v>2021</v>
+      </c>
+      <c r="D388" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A389" t="s">
+        <v>146</v>
+      </c>
+      <c r="B389">
+        <v>3</v>
+      </c>
+      <c r="C389">
+        <v>2021</v>
+      </c>
+      <c r="D389" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A390" t="s">
+        <v>170</v>
+      </c>
+      <c r="B390">
+        <v>3</v>
+      </c>
+      <c r="C390">
+        <v>2021</v>
+      </c>
+      <c r="D390" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A391" t="s">
         <v>62</v>
       </c>
-      <c r="B388">
-        <v>3</v>
-      </c>
-      <c r="C388">
-        <v>2016</v>
-      </c>
-      <c r="D388" t="s">
+      <c r="B391">
+        <v>3</v>
+      </c>
+      <c r="C391">
+        <v>2021</v>
+      </c>
+      <c r="D391" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A392" t="s">
+        <v>63</v>
+      </c>
+      <c r="B392">
+        <v>3</v>
+      </c>
+      <c r="C392">
+        <v>2021</v>
+      </c>
+      <c r="D392" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A393" t="s">
+        <v>64</v>
+      </c>
+      <c r="B393">
+        <v>3</v>
+      </c>
+      <c r="C393">
+        <v>2021</v>
+      </c>
+      <c r="D393" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A394" t="s">
+        <v>64</v>
+      </c>
+      <c r="B394">
+        <v>3</v>
+      </c>
+      <c r="C394">
+        <v>2021</v>
+      </c>
+      <c r="D394" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A395" t="s">
+        <v>65</v>
+      </c>
+      <c r="B395">
+        <v>3</v>
+      </c>
+      <c r="C395">
+        <v>2021</v>
+      </c>
+      <c r="D395" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A396" t="s">
+        <v>172</v>
+      </c>
+      <c r="B396">
+        <v>3</v>
+      </c>
+      <c r="C396">
+        <v>2021</v>
+      </c>
+      <c r="D396" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
